--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -62,7 +62,7 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 9:14 AM</t>
+    <t>Saturday, 19 July, 2025 9:16 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -62,7 +62,22 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 9:16 AM</t>
+    <t>MELOQUIN 4% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>Saturday, 19 July, 2025 9:26 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +739,71 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>15.84</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>75.840000000000003</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>22</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>23</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>24</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +817,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -44,24 +44,63 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>187.50</t>
+  </si>
+  <si>
+    <t>61.8750</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
     <t>15.8400</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>MELOQUIN 4% CREAM 20 GM</t>
   </si>
   <si>
@@ -74,10 +113,31 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Saturday, 19 July, 2025 9:26 AM</t>
+    <t>OXITROPIL 1200 MG 60 TAB</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>URIPAN X.R. 10 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 19 July, 2025 10:17 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -768,42 +828,207 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>75.840000000000003</v>
-      </c>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
         <v>22</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
         <v>23</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
         <v>24</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c t="s" r="Q9" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>27</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>31</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>32</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>34</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>35</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>36</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>39</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>25</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>40</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>415.30500000000001</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>42</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>43</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>44</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -822,10 +1047,35 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -137,7 +137,7 @@
     <t>87.0000</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 10:17 AM</t>
+    <t>Saturday, 19 July, 2025 10:20 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -113,6 +113,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
     <t>OXITROPIL 1200 MG 60 TAB</t>
   </si>
   <si>
@@ -135,6 +147,18 @@
   </si>
   <si>
     <t>87.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
   </si>
   <si>
     <t>Saturday, 19 July, 2025 10:20 AM</t>
@@ -960,7 +984,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -969,14 +993,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -993,42 +1017,108 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>43</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>25</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>44</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>415.30500000000001</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
-        <v>42</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
-        <v>43</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
-        <v>44</v>
-      </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>46</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>31</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>47</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>48</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>427.86500000000001</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>50</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>51</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>52</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1072,10 +1162,20 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -125,6 +125,18 @@
     <t>10.5600</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>OXITROPIL 1200 MG 60 TAB</t>
   </si>
   <si>
@@ -161,7 +173,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 10:20 AM</t>
+    <t>Saturday, 19 July, 2025 10:33 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1017,7 +1029,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1026,14 +1038,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1050,7 +1062,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1059,20 +1071,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1087,38 +1099,71 @@
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>427.86500000000001</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>50</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>31</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
         <v>51</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>52</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>458.86500000000001</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>54</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>55</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>56</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1172,10 +1217,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -86,7 +101,16 @@
     <t>61.8750</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
   </si>
   <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
@@ -113,6 +137,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>MY-VITOS 30SOFT GELATIN CAPSULES</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -164,16 +200,13 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Saturday, 19 July, 2025 10:33 AM</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 19 July, 2025 10:41 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1045,13 +1078,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1062,7 +1095,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1071,14 +1104,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1095,7 +1128,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1111,13 +1144,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1132,38 +1165,137 @@
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>458.86500000000001</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>54</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>55</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>56</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>59</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>25</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>60</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>62</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>39</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>43</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>63</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>657.745</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>65</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>66</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>67</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1222,10 +1354,25 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -126,9 +138,6 @@
   </si>
   <si>
     <t>MELOQUIN 4% CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>0:0</t>
   </si>
   <si>
     <t>60.00</t>
@@ -930,7 +939,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -939,14 +948,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -956,14 +965,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -996,7 +1005,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1029,7 +1038,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1062,7 +1071,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1078,21 +1087,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1104,31 +1113,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1137,14 +1146,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1154,14 +1163,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1170,14 +1179,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1187,14 +1196,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1203,14 +1212,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1220,14 +1229,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1243,13 +1252,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1260,42 +1269,75 @@
         <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>657.745</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>65</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>22</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>46</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>66</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
         <v>67</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c t="s" r="Q20" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>697.745</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>68</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>69</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>70</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1369,10 +1411,15 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -215,7 +215,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 10:41 AM</t>
+    <t>Saturday, 19 July, 2025 11:00 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -113,12 +113,21 @@
     <t>61.8750</t>
   </si>
   <si>
+    <t>EPICOGEL SUSP. 180ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -131,9 +140,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -197,6 +203,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>URIPAN X.R. 10 MG 30 TAB.</t>
   </si>
   <si>
@@ -215,7 +233,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 11:00 AM</t>
+    <t>Saturday, 19 July, 2025 11:06 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1054,7 +1072,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1064,14 +1082,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1080,14 +1098,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1097,14 +1115,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1113,7 +1131,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1126,15 +1144,15 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1146,31 +1164,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1179,14 +1197,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1196,14 +1214,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1212,14 +1230,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1229,14 +1247,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1245,14 +1263,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1262,14 +1280,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1278,20 +1296,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1302,42 +1320,108 @@
         <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>68</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>29</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>69</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>71</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>22</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>48</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>72</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>35</v>
       </c>
     </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>697.745</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
-        <v>68</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
-        <v>69</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
-        <v>70</v>
-      </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>769.745</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>74</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>75</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>76</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1416,10 +1500,20 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -80,9 +92,6 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -116,9 +125,6 @@
     <t>EPICOGEL SUSP. 180ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -233,7 +239,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 11:06 AM</t>
+    <t>Saturday, 19 July, 2025 11:48 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -907,7 +913,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -917,14 +923,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -983,14 +989,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -999,14 +1005,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1016,14 +1022,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1032,14 +1038,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1049,14 +1055,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1065,14 +1071,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1082,11 +1088,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1098,14 +1104,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1115,14 +1121,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1131,14 +1137,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1148,14 +1154,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1164,28 +1170,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1197,31 +1203,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1230,14 +1236,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1247,14 +1253,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1263,14 +1269,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1280,14 +1286,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1296,14 +1302,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1313,14 +1319,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1329,14 +1335,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1346,11 +1352,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1362,66 +1368,99 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>73</v>
       </c>
-      <c t="s" r="Q22" s="12">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>769.745</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>26</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>50</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>74</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
         <v>75</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c t="s" r="Q23" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>849.745</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
         <v>76</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>77</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>78</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1510,10 +1549,15 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -44,18 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
     <t>4:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>78.0000</t>
   </si>
   <si>
@@ -77,9 +89,6 @@
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -107,9 +116,6 @@
     <t>11.8800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -122,6 +128,15 @@
     <t>61.8750</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>EPICOGEL SUSP. 180ML</t>
   </si>
   <si>
@@ -236,10 +251,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>Saturday, 19 July, 2025 11:48 AM</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 19 July, 2025 12:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -913,7 +928,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -923,7 +938,7 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
@@ -946,7 +961,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -956,14 +971,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -979,7 +994,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -989,14 +1004,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1022,14 +1037,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1038,14 +1053,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1055,14 +1070,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1071,14 +1086,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1088,11 +1103,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1104,14 +1119,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1121,11 +1136,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1137,14 +1152,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1154,14 +1169,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1170,14 +1185,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1187,14 +1202,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1203,28 +1218,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1236,14 +1251,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1253,14 +1268,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1269,31 +1284,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1302,14 +1317,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1319,14 +1334,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1335,14 +1350,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1352,14 +1367,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1368,14 +1383,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1385,14 +1400,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1401,66 +1416,132 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>849.745</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>75</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>16</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>76</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>77</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c t="s" r="Q24" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>78</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>29</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>55</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>79</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>899.22500000000002</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>81</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>82</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>83</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1554,10 +1635,20 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -137,12 +137,21 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>EPICOGEL SUSP. 180ML</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -161,9 +170,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>MELOQUIN 4% CREAM 20 GM</t>
   </si>
   <si>
@@ -209,6 +215,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>OXITROPIL 1200 MG 60 TAB</t>
   </si>
   <si>
@@ -224,6 +239,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -236,6 +263,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:16</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>75.2000</t>
+  </si>
+  <si>
     <t>URIPAN X.R. 10 MG 30 TAB.</t>
   </si>
   <si>
@@ -254,7 +293,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 12:07 PM</t>
+    <t>Saturday, 19 July, 2025 12:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1159,7 +1198,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1169,14 +1208,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1185,7 +1224,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1202,7 +1241,7 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1225,7 +1264,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1235,14 +1274,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1258,7 +1297,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1268,14 +1307,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1284,7 +1323,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1297,15 +1336,15 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1317,31 +1356,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1350,14 +1389,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1367,14 +1406,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1383,14 +1422,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1400,14 +1439,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1416,14 +1455,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1433,11 +1472,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1449,14 +1488,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1466,14 +1505,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1482,66 +1521,198 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>80</v>
       </c>
-      <c t="s" r="Q25" s="12">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>899.22500000000002</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
         <v>81</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>13</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>82</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>83</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c t="s" r="Q26" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>84</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>85</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>86</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>88</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>16</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>13</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>89</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>91</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>29</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>57</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>92</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1032.2650000000001</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>94</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>95</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>96</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1645,10 +1816,30 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
     <t>1:3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -71,9 +86,6 @@
     <t>78.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
@@ -110,9 +122,6 @@
     <t>4:3</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>11.8800</t>
   </si>
   <si>
@@ -164,6 +173,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -191,6 +209,15 @@
     <t>165.0000</t>
   </si>
   <si>
+    <t>NEURONTIN 300MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -290,10 +317,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>Saturday, 19 July, 2025 12:59 PM</t>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>Saturday, 19 July, 2025 2:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -977,14 +1007,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -993,14 +1023,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1010,14 +1040,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1033,7 +1063,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1050,7 +1080,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1059,14 +1089,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1076,14 +1106,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1092,14 +1122,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1109,7 +1139,7 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
@@ -1142,14 +1172,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1158,14 +1188,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1182,7 +1212,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1198,7 +1228,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1208,14 +1238,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1224,14 +1254,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1241,14 +1271,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1257,14 +1287,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1274,14 +1304,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1297,7 +1327,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1307,11 +1337,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1323,14 +1353,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1340,14 +1370,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1356,31 +1386,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1389,14 +1419,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1406,11 +1436,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1422,31 +1452,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1455,14 +1485,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1472,14 +1502,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1488,14 +1518,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1505,14 +1535,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1521,14 +1551,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1538,11 +1568,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1554,14 +1584,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1571,14 +1601,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1587,14 +1617,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1604,14 +1634,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1620,14 +1650,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1637,14 +1667,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1653,66 +1683,165 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>93</v>
       </c>
-      <c t="s" r="Q29" s="12">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1032.2650000000001</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
         <v>94</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>13</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>95</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c t="s" r="Q30" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>97</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>21</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>13</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>98</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>100</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>33</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>63</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>101</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1252.2650000000001</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>104</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>105</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>106</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1836,10 +1965,25 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -158,6 +158,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>EPICOGEL SUSP. 180ML</t>
   </si>
   <si>
@@ -182,6 +191,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -323,7 +341,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 2:41 PM</t>
+    <t>Saturday, 19 July, 2025 2:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1294,7 +1312,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1304,11 +1322,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1320,7 +1338,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1337,7 +1355,7 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
@@ -1360,7 +1378,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1393,7 +1411,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1403,14 +1421,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1419,14 +1437,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1436,14 +1454,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1452,31 +1470,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1485,14 +1503,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1502,14 +1520,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1518,31 +1536,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1551,14 +1569,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1568,14 +1586,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1584,14 +1602,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1601,14 +1619,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1617,14 +1635,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1634,14 +1652,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1650,14 +1668,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1667,14 +1685,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1683,14 +1701,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1700,14 +1718,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1716,14 +1734,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1733,14 +1751,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1749,14 +1767,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1766,11 +1784,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1782,20 +1800,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1806,42 +1824,108 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>103</v>
       </c>
-    </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1252.2650000000001</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>21</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>13</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>104</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>105</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>106</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>33</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>69</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>107</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1393.7650000000001</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>110</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>111</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>112</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1980,10 +2064,20 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -341,7 +341,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 2:42 PM</t>
+    <t>Saturday, 19 July, 2025 2:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -206,6 +206,15 @@
     <t>9:0</t>
   </si>
   <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
     <t>MELOQUIN 4% CREAM 20 GM</t>
   </si>
   <si>
@@ -341,7 +350,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 2:45 PM</t>
+    <t>Saturday, 19 July, 2025 2:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1510,7 +1519,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1527,7 +1536,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1549,15 +1558,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1569,20 +1578,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1593,7 +1602,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1609,7 +1618,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1619,11 +1628,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1635,14 +1644,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1652,14 +1661,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1668,14 +1677,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1708,7 +1717,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1718,14 +1727,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1734,14 +1743,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1751,14 +1760,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1767,14 +1776,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1784,14 +1793,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1800,14 +1809,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1817,14 +1826,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1833,14 +1842,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1857,7 +1866,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1873,13 +1882,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1890,42 +1899,75 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>109</v>
       </c>
-    </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1393.7650000000001</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>33</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>72</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>110</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c t="s" r="Q35" s="12">
         <v>112</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1466.2650000000001</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>113</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>114</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>115</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2074,10 +2116,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -350,7 +350,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 2:47 PM</t>
+    <t>Saturday, 19 July, 2025 3:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -338,6 +338,15 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -350,7 +359,16 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 3:00 PM</t>
+    <t>شاور جل بلو لاين</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 19 July, 2025 3:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1915,7 +1933,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1932,42 +1950,108 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>112</v>
       </c>
-    </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1466.2650000000001</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>33</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>72</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>113</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c t="s" r="Q36" s="12">
         <v>115</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>116</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>16</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>72</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>117</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1546.2650000000001</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>119</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>120</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>121</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2121,10 +2205,20 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -191,6 +191,18 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>HEPATO-FORTE 30 CAPS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -242,7 +254,7 @@
     <t>108.00</t>
   </si>
   <si>
-    <t>54.0000</t>
+    <t>162.0000</t>
   </si>
   <si>
     <t>NEUROTON 6 AMP</t>
@@ -257,6 +269,15 @@
     <t>10.5600</t>
   </si>
   <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -290,9 +311,6 @@
     <t>40.5900</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -368,7 +386,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 3:12 PM</t>
+    <t>Saturday, 19 July, 2025 3:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1471,7 +1489,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1488,7 +1506,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1497,14 +1515,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1514,11 +1532,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1530,14 +1548,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1547,11 +1565,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1563,14 +1581,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1580,14 +1598,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1596,7 +1614,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1609,7 +1627,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1636,24 +1654,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1662,14 +1680,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1686,7 +1704,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1719,7 +1737,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1735,7 +1753,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1785,7 +1803,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1794,14 +1812,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1811,14 +1829,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1827,14 +1845,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1844,14 +1862,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1860,14 +1878,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1877,14 +1895,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1893,14 +1911,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1910,11 +1928,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1926,20 +1944,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1950,7 +1968,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1966,13 +1984,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1983,7 +2001,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1992,66 +2010,132 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1546.2650000000001</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>118</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>33</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>76</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>119</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c t="s" r="Q38" s="12">
         <v>121</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>122</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>16</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>76</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>123</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1745.7249999999999</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>125</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>126</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>127</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2215,10 +2299,20 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -386,7 +386,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 3:41 PM</t>
+    <t>Saturday, 19 July, 2025 4:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -278,6 +278,9 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -356,6 +359,18 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -386,7 +401,13 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 4:02 PM</t>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>Saturday, 19 July, 2025 5:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1786,7 +1807,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1796,11 +1817,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1812,14 +1833,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1829,11 +1850,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1845,14 +1866,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1862,14 +1883,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1878,14 +1899,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1895,14 +1916,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1911,14 +1932,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1928,14 +1949,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1944,14 +1965,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1961,14 +1982,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1977,14 +1998,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1994,14 +2015,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2010,28 +2031,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2043,31 +2064,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2076,14 +2097,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2093,49 +2114,148 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1745.7249999999999</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>123</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>33</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>76</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>124</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>125</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c t="s" r="Q40" s="12">
         <v>126</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>127</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>16</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>76</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>128</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>130</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>131</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>76</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>55</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1881.7249999999999</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>132</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>133</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>134</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2309,10 +2429,25 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -407,7 +407,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 5:28 PM</t>
+    <t>Saturday, 19 July, 2025 5:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -1708,7 +1708,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -407,7 +407,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 5:29 PM</t>
+    <t>Saturday, 19 July, 2025 5:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -407,7 +407,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 5:40 PM</t>
+    <t>Saturday, 19 July, 2025 5:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -158,6 +170,12 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>DOLPHIN 50MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>ECTOMETHRIN 5% LOTION 50 ML</t>
   </si>
   <si>
@@ -335,9 +353,6 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -362,9 +377,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -407,7 +419,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 5:41 PM</t>
+    <t>Saturday, 19 July, 2025 5:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1256,14 +1268,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1272,14 +1284,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1289,7 +1301,7 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
@@ -1312,7 +1324,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1322,11 +1334,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1338,14 +1350,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1378,7 +1390,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1388,14 +1400,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1404,14 +1416,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1421,14 +1433,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1437,14 +1449,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1454,11 +1466,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1470,14 +1482,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1487,7 +1499,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1510,7 +1522,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1527,7 +1539,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1536,14 +1548,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1553,14 +1565,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1569,14 +1581,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1586,14 +1598,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1602,14 +1614,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1619,11 +1631,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1635,14 +1647,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1652,14 +1664,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1675,24 +1687,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1701,14 +1713,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1718,14 +1730,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1734,31 +1746,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1767,14 +1779,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1784,14 +1796,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1800,14 +1812,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1817,14 +1829,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1833,14 +1845,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1850,11 +1862,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1866,14 +1878,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1883,11 +1895,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1899,14 +1911,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1916,14 +1928,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1932,14 +1944,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1949,14 +1961,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1965,14 +1977,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1982,14 +1994,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1998,14 +2010,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2015,14 +2027,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2031,14 +2043,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2048,11 +2060,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2064,14 +2076,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2081,14 +2093,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2097,28 +2109,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2130,31 +2142,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2163,28 +2175,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2196,66 +2208,132 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>131</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1881.7249999999999</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>82</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>132</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>133</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>134</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>135</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>82</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>61</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1938.7249999999999</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>136</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>137</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>138</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2444,10 +2522,20 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -230,6 +230,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>IBIAMOX 500MG 12 CAPS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -365,6 +374,18 @@
     <t>75.2000</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
     <t>URIPAN X.R. 10 MG 30 TAB.</t>
   </si>
   <si>
@@ -419,7 +440,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 5:45 PM</t>
+    <t>Saturday, 19 July, 2025 5:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1654,7 +1675,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1664,14 +1685,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1680,14 +1701,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1697,11 +1718,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1720,7 +1741,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1737,7 +1758,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1759,15 +1780,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1779,20 +1800,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1803,7 +1824,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1819,7 +1840,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1829,14 +1850,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1845,14 +1866,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1869,7 +1890,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1885,7 +1906,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1895,11 +1916,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1911,14 +1932,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1928,11 +1949,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1944,14 +1965,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1984,7 +2005,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1994,14 +2015,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2010,14 +2031,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2027,14 +2048,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2043,14 +2064,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2060,14 +2081,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2097,10 +2118,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2109,14 +2130,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2133,7 +2154,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2149,7 +2170,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2159,14 +2180,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2175,28 +2196,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2208,31 +2229,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2248,13 +2269,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2281,59 +2302,125 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>138</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>16</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>85</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>139</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>141</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>142</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>85</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>61</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>62</v>
       </c>
-      <c t="s" r="Q44" s="12">
+      <c t="s" r="Q46" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1938.7249999999999</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>136</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
-        <v>137</v>
-      </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
-        <v>138</v>
-      </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1973.7750000000001</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>143</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>144</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>145</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2532,10 +2619,20 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -86,6 +86,24 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
@@ -413,6 +431,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -440,7 +467,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 5:48 PM</t>
+    <t>Saturday, 19 July, 2025 5:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1197,7 +1224,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1206,14 +1233,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1223,14 +1250,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1239,14 +1266,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1256,14 +1283,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1279,7 +1306,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1289,11 +1316,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1305,14 +1332,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1322,14 +1349,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1338,14 +1365,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1355,14 +1382,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1371,14 +1398,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1388,11 +1415,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1404,14 +1431,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1421,11 +1448,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1437,14 +1464,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1454,7 +1481,7 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
@@ -1477,7 +1504,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1487,14 +1514,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1503,14 +1530,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1520,14 +1547,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1536,14 +1563,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1553,11 +1580,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1569,14 +1596,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1586,7 +1613,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1609,7 +1636,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1626,7 +1653,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1635,14 +1662,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1652,14 +1679,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1668,14 +1695,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1685,14 +1712,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>75</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1708,7 +1735,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1718,11 +1745,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1734,14 +1761,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1751,14 +1778,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1767,14 +1794,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1784,14 +1811,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1807,24 +1834,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1833,14 +1860,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1850,14 +1877,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1866,31 +1893,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1899,14 +1926,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1916,14 +1943,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1932,14 +1959,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1949,14 +1976,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1965,14 +1992,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1982,11 +2009,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1998,14 +2025,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2015,11 +2042,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2031,14 +2058,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2048,14 +2075,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2064,14 +2091,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2081,14 +2108,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2097,14 +2124,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2114,14 +2141,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2130,14 +2157,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2147,14 +2174,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2163,14 +2190,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2180,14 +2207,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2196,14 +2223,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2213,14 +2240,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2229,14 +2256,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2253,7 +2280,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2269,13 +2296,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2302,13 +2329,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2319,7 +2346,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2328,28 +2355,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2361,66 +2388,165 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1973.7750000000001</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>143</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>39</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>91</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
         <v>144</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c t="s" r="Q47" s="12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>147</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>16</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>91</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>148</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>150</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>151</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>91</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>67</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2068.6750000000002</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>152</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>153</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>154</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2629,10 +2755,25 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -467,7 +467,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 5:55 PM</t>
+    <t>Saturday, 19 July, 2025 6:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -413,6 +425,18 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -467,7 +491,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 6:11 PM</t>
+    <t>Saturday, 19 July, 2025 6:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1184,14 +1208,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1200,14 +1224,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1217,14 +1241,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1233,7 +1257,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1250,11 +1274,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1266,7 +1290,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1283,14 +1307,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1306,7 +1330,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1323,7 +1347,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1332,14 +1356,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1349,11 +1373,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1365,14 +1389,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1382,7 +1406,7 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
@@ -1415,14 +1439,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1431,14 +1455,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1448,7 +1472,7 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -1471,7 +1495,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1481,11 +1505,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1497,14 +1521,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1537,7 +1561,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1547,11 +1571,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1563,14 +1587,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1580,14 +1604,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1596,14 +1620,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1613,11 +1637,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1629,14 +1653,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1646,11 +1670,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1662,14 +1686,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1679,11 +1703,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1695,14 +1719,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1712,14 +1736,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1735,7 +1759,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1752,7 +1776,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1761,14 +1785,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1778,14 +1802,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1794,14 +1818,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1811,14 +1835,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1827,14 +1851,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1844,11 +1868,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1860,14 +1884,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1877,14 +1901,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1893,20 +1917,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1933,24 +1957,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1959,14 +1983,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1983,7 +2007,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1999,7 +2023,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2009,14 +2033,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2025,14 +2049,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2042,11 +2066,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2058,14 +2082,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2075,11 +2099,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2098,7 +2122,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2108,11 +2132,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2124,14 +2148,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2148,7 +2172,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2181,7 +2205,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2211,10 +2235,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2223,14 +2247,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2240,14 +2264,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2280,7 +2304,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2296,7 +2320,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2306,14 +2330,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2322,14 +2346,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2339,11 +2363,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2355,28 +2379,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2388,31 +2412,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2421,31 +2445,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2454,31 +2478,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2487,66 +2511,132 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2068.6750000000002</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>152</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>153</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>154</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>155</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>16</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>95</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>156</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>158</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>159</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>95</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>71</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2125.3649999999998</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>160</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>161</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>162</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2770,10 +2860,20 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -491,7 +491,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 6:17 PM</t>
+    <t>Saturday, 19 July, 2025 6:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -416,6 +416,12 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>URIPAN X.R. 10 MG 30 TAB.</t>
   </si>
   <si>
@@ -491,7 +497,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 6:19 PM</t>
+    <t>Saturday, 19 July, 2025 6:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2353,7 +2359,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2363,11 +2369,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2379,14 +2385,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2396,11 +2402,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2412,14 +2418,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2429,11 +2435,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2445,28 +2451,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2478,14 +2484,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2495,14 +2501,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2511,7 +2517,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2528,14 +2534,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>154</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2544,14 +2550,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2561,14 +2567,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2577,14 +2583,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2594,49 +2600,82 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>160</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>161</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>95</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>71</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>72</v>
       </c>
-      <c t="s" r="Q51" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2125.3649999999998</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>160</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>161</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2255.3649999999998</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
         <v>162</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>163</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>164</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2870,10 +2909,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -206,6 +206,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
     <t>ECTOMETHRIN 5% LOTION 50 ML</t>
   </si>
   <si>
@@ -221,6 +230,18 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
   </si>
   <si>
@@ -248,9 +269,6 @@
     <t>53.4600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -338,6 +356,15 @@
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>89.1000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -497,7 +524,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 6:24 PM</t>
+    <t>Saturday, 19 July, 2025 6:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1633,7 +1660,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1650,7 +1677,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1666,7 +1693,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1676,11 +1703,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1692,7 +1719,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1709,7 +1736,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1732,7 +1759,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1742,14 +1769,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1758,14 +1785,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1775,14 +1802,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1798,7 +1825,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1815,7 +1842,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1831,7 +1858,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1848,7 +1875,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1864,7 +1891,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1874,11 +1901,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1890,14 +1917,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1907,14 +1934,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1923,14 +1950,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1940,14 +1967,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1963,24 +1990,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1989,14 +2016,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2006,14 +2033,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2022,31 +2049,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2055,14 +2082,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2072,14 +2099,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2088,14 +2115,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2105,14 +2132,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2121,14 +2148,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2138,11 +2165,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2154,14 +2181,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2171,11 +2198,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2187,14 +2214,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2204,14 +2231,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2220,14 +2247,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2237,14 +2264,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2253,14 +2280,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2270,11 +2297,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2286,14 +2313,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2303,14 +2330,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2319,14 +2346,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2336,11 +2363,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2352,14 +2379,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2369,11 +2396,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2385,14 +2412,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2409,7 +2436,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2442,7 +2469,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2458,7 +2485,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2468,11 +2495,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2484,28 +2511,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2517,20 +2544,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2541,7 +2568,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2557,13 +2584,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2574,7 +2601,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2583,28 +2610,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2616,66 +2643,165 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2255.3649999999998</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>162</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>43</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>101</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
         <v>163</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c t="s" r="Q53" s="12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>166</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>16</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>101</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>167</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>169</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>170</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>101</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>78</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2488.6750000000002</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>171</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>172</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>173</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2914,10 +3040,25 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -89,6 +89,21 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -233,9 +248,6 @@
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -314,9 +326,6 @@
     <t>MY-VITOS 30SOFT GELATIN CAPSULES</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>165.00</t>
   </si>
   <si>
@@ -443,6 +452,15 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
   </si>
   <si>
@@ -488,6 +506,12 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>98:0</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -503,10 +527,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
+    <t>14.0000</t>
   </si>
   <si>
     <t>شاور جل بلو لاين</t>
@@ -518,13 +539,22 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 6:25 PM</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>Saturday, 19 July, 2025 6:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1270,7 +1300,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1278,10 +1308,10 @@
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1290,14 +1320,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1307,14 +1337,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1323,7 +1353,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1340,11 +1370,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1356,7 +1386,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1373,14 +1403,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1389,14 +1419,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1406,14 +1436,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1422,14 +1452,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1439,11 +1469,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1455,14 +1485,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1472,11 +1502,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1488,14 +1518,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1505,14 +1535,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1521,14 +1551,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1538,11 +1568,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1554,14 +1584,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1571,11 +1601,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1587,14 +1617,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1604,11 +1634,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1620,14 +1650,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1637,11 +1667,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1653,14 +1683,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1674,7 +1704,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1686,14 +1716,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1703,14 +1733,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1719,14 +1749,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1736,11 +1766,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1752,14 +1782,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1769,14 +1799,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1785,14 +1815,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1802,14 +1832,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1818,14 +1848,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1835,11 +1865,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1851,14 +1881,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1868,14 +1898,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1884,14 +1914,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1901,14 +1931,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1917,14 +1947,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1934,14 +1964,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1950,14 +1980,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1967,14 +1997,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1983,14 +2013,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2000,11 +2030,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2016,14 +2046,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2033,14 +2063,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2049,20 +2079,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2089,13 +2119,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2106,7 +2136,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2122,7 +2152,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2132,14 +2162,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2148,14 +2178,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2172,7 +2202,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2188,7 +2218,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2198,11 +2228,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2214,7 +2244,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2231,14 +2261,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2254,7 +2284,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2264,14 +2294,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2280,14 +2310,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2320,7 +2350,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2330,14 +2360,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2346,14 +2376,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2363,14 +2393,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2379,14 +2409,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2396,14 +2426,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2433,10 +2463,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2445,14 +2475,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2462,14 +2492,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2478,14 +2508,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2495,14 +2525,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2511,14 +2541,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2528,14 +2558,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2544,14 +2574,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2561,11 +2591,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2577,14 +2607,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2594,11 +2624,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2610,20 +2640,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2650,13 +2680,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2667,7 +2697,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2683,13 +2713,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2700,7 +2730,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>165</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2709,28 +2739,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2742,66 +2772,231 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2488.6750000000002</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>170</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>48</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>28</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
         <v>171</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
         <v>172</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c t="s" r="Q56" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>173</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>16</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>28</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>174</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>176</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>48</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>28</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>177</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>178</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>179</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>28</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>82</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>180</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>43</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>28</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>138</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2608.2350000000001</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>181</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>182</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>183</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3055,10 +3250,35 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -164,333 +164,336 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>187.50</t>
+  </si>
+  <si>
+    <t>61.8750</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOLPHIN 50MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
+    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>EPICOGEL SUSP. 180ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>HEPATO-FORTE 30 CAPS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>IBIAMOX 500MG 12 CAPS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>MELOQUIN 4% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MY-VITOS 30SOFT GELATIN CAPSULES</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
+    <t>NEURONTIN 300MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>162.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>89.1000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>OXITROPIL 1200 MG 60 TAB</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:16</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>75.2000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>URIPAN X.R. 10 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>187.50</t>
-  </si>
-  <si>
-    <t>61.8750</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOLPHIN 50MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>386.00</t>
-  </si>
-  <si>
-    <t>127.3800</t>
-  </si>
-  <si>
-    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>EPICOGEL SUSP. 180ML</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>HEPATO-FORTE 30 CAPS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>IBIAMOX 500MG 12 CAPS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>MELOQUIN 4% CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MY-VITOS 30SOFT GELATIN CAPSULES</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>165.0000</t>
-  </si>
-  <si>
-    <t>NEURONTIN 300MG 20 CAPS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>162.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NORGESIC 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>89.1000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>OXITROPIL 1200 MG 60 TAB</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>1:16</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>75.2000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>URIPAN X.R. 10 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -554,7 +557,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 6:29 PM</t>
+    <t>Saturday, 19 July, 2025 6:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2680,7 +2683,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2690,11 +2693,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2706,7 +2709,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2723,11 +2726,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2739,14 +2742,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2772,7 +2775,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2789,11 +2792,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>137</v>
@@ -2805,7 +2808,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2822,14 +2825,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>51</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2838,7 +2841,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2855,11 +2858,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2871,7 +2874,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2888,11 +2891,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>43</v>
@@ -2904,14 +2907,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2937,7 +2940,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2972,7 +2975,7 @@
     </row>
     <row r="62" ht="16.5" customHeight="1">
       <c t="s" r="A62" s="14">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -2980,13 +2983,13 @@
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c t="s" r="G62" s="15">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
       <c r="J62" s="16"/>
       <c t="s" r="K62" s="17">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ARBATEG 2% SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -155,9 +167,6 @@
     <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -200,9 +209,6 @@
     <t>70.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -386,6 +392,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>4:8</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -557,7 +572,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 6:34 PM</t>
+    <t>Saturday, 19 July, 2025 6:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1340,11 +1355,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1356,14 +1371,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1373,14 +1388,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1389,7 +1404,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1406,11 +1421,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1422,7 +1437,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1439,14 +1454,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1462,7 +1477,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1479,7 +1494,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1488,14 +1503,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1505,11 +1520,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1521,14 +1536,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1538,11 +1553,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1554,14 +1569,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1571,14 +1586,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1604,11 +1619,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1620,14 +1635,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1660,7 +1675,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1670,11 +1685,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1686,14 +1701,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1703,7 +1718,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1726,7 +1741,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1736,11 +1751,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1752,14 +1767,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1769,14 +1784,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1785,14 +1800,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1802,7 +1817,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1825,7 +1840,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1835,14 +1850,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1851,14 +1866,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1868,14 +1883,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1884,14 +1899,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1901,11 +1916,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1917,14 +1932,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1934,14 +1949,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1950,14 +1965,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1967,14 +1982,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1983,14 +1998,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2000,14 +2015,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2016,14 +2031,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2033,14 +2048,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2056,7 +2071,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2066,11 +2081,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2082,14 +2097,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2099,14 +2114,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2115,28 +2130,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2148,31 +2163,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2181,14 +2196,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2198,14 +2213,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2214,14 +2229,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2231,14 +2246,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2247,14 +2262,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2264,11 +2279,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2280,7 +2295,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2297,14 +2312,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2313,14 +2328,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2330,14 +2345,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2346,14 +2361,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2363,11 +2378,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2379,14 +2394,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2396,14 +2411,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2412,14 +2427,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2429,14 +2444,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2445,14 +2460,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2462,14 +2477,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2478,14 +2493,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2495,14 +2510,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2511,14 +2526,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2528,14 +2543,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2544,14 +2559,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2561,14 +2576,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2577,14 +2592,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2594,14 +2609,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2617,7 +2632,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2634,7 +2649,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2650,7 +2665,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2660,11 +2675,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2676,14 +2691,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2693,11 +2708,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2709,28 +2724,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2742,28 +2757,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2782,7 +2797,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2799,7 +2814,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2815,7 +2830,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2825,14 +2840,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2841,14 +2856,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2858,14 +2873,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2874,14 +2889,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2891,14 +2906,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>165</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>43</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2914,7 +2929,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2924,11 +2939,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2940,14 +2955,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2957,49 +2972,115 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2608.2350000000001</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>182</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>183</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>184</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>185</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>28</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>84</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>186</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>47</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>28</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>143</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>2647.2350000000001</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>187</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>188</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>189</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3278,10 +3359,20 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -128,6 +128,9 @@
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>86.00</t>
   </si>
   <si>
@@ -152,9 +155,6 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -185,7 +185,7 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>4:3</t>
+    <t>9:3</t>
   </si>
   <si>
     <t>11.8800</t>
@@ -425,9 +425,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -572,7 +569,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 6:38 PM</t>
+    <t>Saturday, 19 July, 2025 7:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1411,7 +1408,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1421,11 +1418,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1437,7 +1434,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1454,11 +1451,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1470,7 +1467,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1487,14 +1484,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1553,7 +1550,7 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -1675,7 +1672,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1807,7 +1804,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1840,7 +1837,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1906,7 +1903,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2038,7 +2035,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2411,7 +2408,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2500,7 +2497,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2510,11 +2507,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2526,14 +2523,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2543,7 +2540,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2559,14 +2556,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2576,11 +2573,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>30</v>
@@ -2592,14 +2589,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2609,11 +2606,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2625,14 +2622,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2642,11 +2639,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2658,7 +2655,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2675,11 +2672,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2691,7 +2688,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2708,11 +2705,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2724,14 +2721,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2741,11 +2738,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2757,14 +2754,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2774,11 +2771,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2790,7 +2787,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2807,11 +2804,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2823,14 +2820,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2856,7 +2853,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2873,14 +2870,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2889,7 +2886,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2906,14 +2903,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2922,7 +2919,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2939,11 +2936,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2955,7 +2952,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2972,14 +2969,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2988,14 +2985,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3021,14 +3018,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3038,7 +3035,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3056,7 +3053,7 @@
     </row>
     <row r="64" ht="16.5" customHeight="1">
       <c t="s" r="A64" s="14">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -3064,13 +3061,13 @@
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
       <c t="s" r="G64" s="15">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
       <c r="J64" s="16"/>
       <c t="s" r="K64" s="17">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L64" s="17"/>
       <c r="M64" s="17"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -269,6 +269,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>0:17</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -380,6 +392,12 @@
     <t>89.1000</t>
   </si>
   <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -488,6 +506,12 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -554,6 +578,9 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>صابون ديتول العنايه بالبشره</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -569,7 +596,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 7:01 PM</t>
+    <t>Saturday, 19 July, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1936,7 +1963,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1946,14 +1973,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1962,14 +1989,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1979,14 +2006,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1995,14 +2022,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2012,14 +2039,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2028,14 +2055,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2045,14 +2072,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2061,14 +2088,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2078,14 +2105,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2094,14 +2121,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2111,11 +2138,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2127,14 +2154,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2144,14 +2171,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2160,7 +2187,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2173,15 +2200,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2193,31 +2220,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2226,14 +2253,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2250,7 +2277,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2266,7 +2293,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2276,14 +2303,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2292,14 +2319,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2309,11 +2336,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2325,7 +2352,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2342,14 +2369,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2358,14 +2385,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2382,7 +2409,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2398,7 +2425,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2408,11 +2435,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2424,14 +2451,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2474,14 +2501,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2490,14 +2517,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2507,14 +2534,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2523,14 +2550,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2540,14 +2567,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2563,7 +2590,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2573,14 +2600,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2589,14 +2616,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2606,14 +2633,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2622,14 +2649,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2639,14 +2666,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2655,14 +2682,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2672,14 +2699,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2688,14 +2715,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2705,14 +2732,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2721,14 +2748,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2738,11 +2765,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2754,14 +2781,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2771,11 +2798,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2787,31 +2814,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2820,28 +2847,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2853,20 +2880,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2877,7 +2904,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2893,7 +2920,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2910,7 +2937,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2926,7 +2953,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2936,11 +2963,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2952,7 +2979,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2969,14 +2996,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>39</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2992,7 +3019,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3002,14 +3029,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3018,14 +3045,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3035,49 +3062,181 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>2647.2350000000001</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>186</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>187</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>188</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>189</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>39</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>28</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>176</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>190</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>32</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>28</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>191</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>192</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>193</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>28</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>84</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>194</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>39</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>28</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>148</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>2734.7550000000001</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>195</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>196</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>197</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3366,10 +3525,30 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -596,7 +596,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 7:28 PM</t>
+    <t>Saturday, 19 July, 2025 7:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>AUGMENTIN 457MG/5ML SUSP. 70 ML</t>
+  </si>
+  <si>
+    <t>137.00</t>
+  </si>
+  <si>
+    <t>137.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -137,6 +146,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
@@ -173,13 +194,13 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>17:0</t>
+    <t>16:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>66.0000</t>
   </si>
   <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
@@ -260,6 +281,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
   </si>
   <si>
@@ -404,9 +434,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
     <t>31.0000</t>
   </si>
   <si>
@@ -470,6 +497,18 @@
     <t>75.2000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -524,12 +563,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8527:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -563,9 +608,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>14.0000</t>
   </si>
   <si>
@@ -596,7 +638,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 7:39 PM</t>
+    <t>Saturday, 19 July, 2025 8:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1435,7 +1477,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1445,14 +1487,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1461,14 +1503,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1501,7 +1543,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1511,14 +1553,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1527,14 +1569,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1544,14 +1586,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1560,14 +1602,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1577,14 +1619,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1593,14 +1635,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1610,11 +1652,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1626,14 +1668,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1643,14 +1685,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1683,7 +1725,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1699,7 +1741,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1709,11 +1751,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1725,14 +1767,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1742,11 +1784,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1758,14 +1800,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1775,11 +1817,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1791,14 +1833,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1808,11 +1850,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1824,14 +1866,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1841,14 +1883,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1857,14 +1899,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1874,14 +1916,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1890,14 +1932,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1907,14 +1949,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1923,14 +1965,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1940,11 +1982,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1956,14 +1998,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1996,13 +2038,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2029,7 +2071,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2046,7 +2088,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2062,7 +2104,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2072,11 +2114,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2088,14 +2130,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2105,11 +2147,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2121,14 +2163,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2138,14 +2180,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2154,14 +2196,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2171,11 +2213,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2187,14 +2229,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2204,11 +2246,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2220,31 +2262,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2253,7 +2295,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2270,14 +2312,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2286,14 +2328,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2310,7 +2352,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2332,7 +2374,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2359,7 +2401,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2369,14 +2411,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2385,14 +2427,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2402,14 +2444,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2418,14 +2460,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2435,14 +2477,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2451,14 +2493,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2468,11 +2510,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2484,14 +2526,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2501,14 +2543,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2517,14 +2559,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2534,14 +2576,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2567,14 +2609,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2583,14 +2625,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2600,11 +2642,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2616,14 +2658,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2633,11 +2675,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2649,14 +2691,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2666,11 +2708,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>30</v>
@@ -2682,14 +2724,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2699,11 +2741,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2715,14 +2757,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2732,14 +2774,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2748,14 +2790,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2765,14 +2807,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2788,7 +2830,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2798,14 +2840,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2814,14 +2856,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2831,11 +2873,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2847,14 +2889,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2864,14 +2906,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2880,14 +2922,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2897,7 +2939,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -2920,13 +2962,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2953,24 +2995,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2986,24 +3028,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3012,31 +3054,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>172</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3045,28 +3087,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3078,14 +3120,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3095,11 +3137,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3111,14 +3153,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3128,14 +3170,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3144,14 +3186,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3161,14 +3203,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3177,14 +3219,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3194,49 +3236,214 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>71</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>200</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>2734.7550000000001</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>195</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>196</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>197</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>28</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>201</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>203</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>42</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>28</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>191</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>204</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>32</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>28</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>205</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>206</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>207</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>28</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>94</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>208</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>42</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>28</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>157</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3022.4749999999999</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>209</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>210</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>211</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3545,10 +3752,35 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -534,6 +534,12 @@
   </si>
   <si>
     <t>130.0000</t>
+  </si>
+  <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>62.00</t>
   </si>
   <si>
     <t>URIPAN X.R. 10 MG 30 TAB.</t>
@@ -2962,7 +2968,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2976,7 +2982,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2988,14 +2994,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3005,14 +3011,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3028,7 +3034,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3038,14 +3044,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3054,14 +3060,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3071,14 +3077,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3087,14 +3093,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3108,10 +3114,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3120,28 +3126,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3153,14 +3159,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3170,11 +3176,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3193,7 +3199,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3203,14 +3209,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>94</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3219,7 +3225,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3236,14 +3242,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>46</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3259,7 +3265,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3269,14 +3275,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3285,14 +3291,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3302,11 +3308,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3318,14 +3324,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3335,14 +3341,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3358,7 +3364,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3368,14 +3374,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3391,7 +3397,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3401,49 +3407,82 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3022.4749999999999</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>209</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>210</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>42</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>28</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>157</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3084.4749999999999</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
         <v>211</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>212</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>213</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3777,10 +3816,15 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -194,13 +194,16 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>16:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>66.0000</t>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
@@ -455,6 +458,9 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>OXITROPIL 1200 MG 60 TAB</t>
   </si>
   <si>
@@ -479,9 +485,6 @@
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -644,7 +647,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 8:18 PM</t>
+    <t>Saturday, 19 July, 2025 8:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1731,7 +1734,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1740,14 +1743,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1761,7 +1764,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1773,14 +1776,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1790,11 +1793,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1806,7 +1809,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1823,7 +1826,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1839,14 +1842,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1856,11 +1859,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1872,7 +1875,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1889,11 +1892,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1905,14 +1908,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1922,11 +1925,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1938,7 +1941,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1955,11 +1958,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1971,7 +1974,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1988,11 +1991,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2004,7 +2007,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2021,11 +2024,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2037,7 +2040,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2054,11 +2057,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2070,7 +2073,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2087,11 +2090,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2103,14 +2106,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2120,11 +2123,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2136,7 +2139,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2153,11 +2156,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2169,7 +2172,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2186,11 +2189,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>30</v>
@@ -2202,14 +2205,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2219,11 +2222,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2235,7 +2238,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2252,11 +2255,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2268,14 +2271,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2285,11 +2288,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2301,7 +2304,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2318,11 +2321,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2334,7 +2337,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2351,11 +2354,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2367,7 +2370,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2384,11 +2387,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2400,7 +2403,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2417,14 +2420,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2433,14 +2436,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2450,11 +2453,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2466,7 +2469,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2483,11 +2486,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2499,7 +2502,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2516,11 +2519,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2532,7 +2535,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2549,11 +2552,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>30</v>
@@ -2565,7 +2568,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2582,11 +2585,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2598,14 +2601,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2619,7 +2622,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2631,14 +2634,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2652,7 +2655,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2664,14 +2667,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2681,11 +2684,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2697,14 +2700,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2714,14 +2717,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2730,14 +2733,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2747,14 +2750,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2763,14 +2766,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2780,14 +2783,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2796,14 +2799,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2813,14 +2816,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2829,14 +2832,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2846,14 +2849,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2862,14 +2865,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2879,11 +2882,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2895,14 +2898,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2912,11 +2915,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2928,14 +2931,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2945,14 +2948,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2961,7 +2964,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2978,11 +2981,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2994,14 +2997,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3011,11 +3014,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3027,14 +3030,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3044,14 +3047,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3060,14 +3063,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3077,14 +3080,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3093,14 +3096,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3110,14 +3113,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3126,14 +3129,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3143,14 +3146,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3159,28 +3162,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3192,14 +3195,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3209,11 +3212,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3225,14 +3228,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3242,14 +3245,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3258,7 +3261,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3275,14 +3278,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3291,14 +3294,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3308,14 +3311,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3324,14 +3327,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3341,11 +3344,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3364,7 +3367,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3374,14 +3377,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3390,14 +3393,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3407,14 +3410,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3423,14 +3426,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3440,49 +3443,82 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>3084.4749999999999</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>211</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>42</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>28</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>158</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3137.4749999999999</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
         <v>212</v>
       </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
         <v>213</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>214</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3821,10 +3857,15 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -302,6 +302,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>FRIZZ OFF CREAM CREAM</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>220.0000</t>
+  </si>
+  <si>
     <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
   </si>
   <si>
@@ -383,6 +392,15 @@
     <t>165.0000</t>
   </si>
   <si>
+    <t>NEBULA HAIR TONIC</t>
+  </si>
+  <si>
+    <t>399.00</t>
+  </si>
+  <si>
+    <t>399.0000</t>
+  </si>
+  <si>
     <t>NEURONTIN 300MG 20 CAPS</t>
   </si>
   <si>
@@ -500,6 +518,15 @@
     <t>75.2000</t>
   </si>
   <si>
+    <t xml:space="preserve">QUIK ROOTS  AMP </t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>297.0000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -647,7 +674,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 8:48 PM</t>
+    <t>Saturday, 19 July, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2113,24 +2140,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2139,14 +2166,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2163,7 +2190,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2179,7 +2206,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2196,7 +2223,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2212,7 +2239,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2229,7 +2256,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2245,7 +2272,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2262,7 +2289,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2278,7 +2305,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2288,14 +2315,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2304,14 +2331,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2321,11 +2348,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2344,7 +2371,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2361,7 +2388,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2383,7 +2410,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2410,13 +2437,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2427,7 +2454,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2443,24 +2470,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2469,14 +2496,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2486,14 +2513,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2502,14 +2529,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2519,14 +2546,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2535,14 +2562,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2552,14 +2579,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2568,14 +2595,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2585,14 +2612,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2601,14 +2628,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2618,14 +2645,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2634,14 +2661,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2651,11 +2678,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2674,7 +2701,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2684,7 +2711,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2707,7 +2734,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2717,14 +2744,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2733,14 +2760,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2750,14 +2777,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2766,14 +2793,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2783,14 +2810,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2799,14 +2826,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2820,10 +2847,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2832,14 +2859,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2856,7 +2883,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2872,7 +2899,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2882,14 +2909,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2898,14 +2925,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2915,14 +2942,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2931,31 +2958,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2964,14 +2991,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2981,14 +3008,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3004,7 +3031,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3014,14 +3041,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3030,14 +3057,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3047,14 +3074,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3063,14 +3090,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3080,14 +3107,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3096,14 +3123,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3113,11 +3140,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3136,7 +3163,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3146,14 +3173,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3169,7 +3196,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3179,14 +3206,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3195,20 +3222,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3241,18 +3268,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>95</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3261,31 +3288,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3294,14 +3321,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3311,14 +3338,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3327,14 +3354,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3344,11 +3371,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3360,14 +3387,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3377,14 +3404,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3393,7 +3420,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3410,14 +3437,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3426,14 +3453,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3443,11 +3470,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>95</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3459,7 +3486,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3476,49 +3503,148 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3137.4749999999999</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>212</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>213</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
-        <v>214</v>
-      </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>216</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>32</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>28</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>217</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>218</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>219</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>28</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>95</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>220</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>42</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>28</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>164</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>4053.4749999999999</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>221</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>222</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>223</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3862,10 +3988,25 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -674,7 +674,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 8:50 PM</t>
+    <t>Saturday, 19 July, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -80,13 +80,16 @@
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>4:1</t>
+    <t>4:0</t>
   </si>
   <si>
     <t>93.00</t>
   </si>
   <si>
-    <t>30.6900</t>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
@@ -101,9 +104,6 @@
     <t>25.7400</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>ARBATEG 2% SUSP. 100ML</t>
   </si>
   <si>
@@ -134,6 +134,18 @@
     <t>137.0000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -206,6 +218,15 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>CONTROLOC 40MG I.V.VIAL</t>
+  </si>
+  <si>
+    <t>146.00</t>
+  </si>
+  <si>
+    <t>146.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -239,9 +260,6 @@
     <t>6:2</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -506,6 +524,15 @@
     <t>24.00</t>
   </si>
   <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -590,15 +617,24 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
     <t>26.0000</t>
   </si>
   <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -626,10 +662,22 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>38:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>98:0</t>
+    <t>97:0</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -647,6 +695,12 @@
     <t>14.0000</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>شاور جل بلو لاين</t>
   </si>
   <si>
@@ -662,9 +716,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
@@ -674,7 +725,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 8:53 PM</t>
+    <t>Saturday, 19 July, 2025 8:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1398,7 +1449,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1407,20 +1458,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1428,10 +1479,10 @@
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1596,7 +1647,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1612,7 +1663,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1622,14 +1673,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1638,7 +1689,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1655,14 +1706,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1671,14 +1722,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1688,14 +1739,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1704,14 +1755,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1721,11 +1772,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1737,14 +1788,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1754,14 +1805,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1770,14 +1821,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1787,14 +1838,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1803,14 +1854,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1827,7 +1878,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1843,7 +1894,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1853,11 +1904,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1869,14 +1920,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1886,11 +1937,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1902,14 +1953,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1919,11 +1970,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1935,14 +1986,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1952,11 +2003,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1968,14 +2019,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1985,14 +2036,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2008,7 +2059,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2018,14 +2069,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2034,14 +2085,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2051,14 +2102,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2067,24 +2118,24 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2107,7 +2158,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2124,7 +2175,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2146,7 +2197,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2173,7 +2224,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2183,14 +2234,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2199,28 +2250,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2232,14 +2283,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2256,7 +2307,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2272,7 +2323,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2289,7 +2340,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2305,7 +2356,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2322,7 +2373,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2338,7 +2389,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2348,11 +2399,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2364,14 +2415,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2381,14 +2432,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2397,14 +2448,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2414,14 +2465,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2437,13 +2488,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2454,7 +2505,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2476,7 +2527,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2503,13 +2554,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2520,7 +2571,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2536,24 +2587,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2562,14 +2613,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2579,14 +2630,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2595,14 +2646,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2612,14 +2663,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2628,14 +2679,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2645,14 +2696,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2661,14 +2712,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2678,14 +2729,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2694,14 +2745,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2711,14 +2762,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2727,14 +2778,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2744,11 +2795,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2767,7 +2818,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2777,7 +2828,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2800,7 +2851,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2810,14 +2861,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2826,14 +2877,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2843,14 +2894,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2859,14 +2910,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2876,14 +2927,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2892,14 +2943,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2913,10 +2964,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2925,14 +2976,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2949,7 +3000,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2965,13 +3016,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2979,10 +3030,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2991,14 +3042,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3008,11 +3059,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3024,14 +3075,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3041,14 +3092,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3057,31 +3108,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3090,14 +3141,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3107,14 +3158,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3130,7 +3181,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3140,14 +3191,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3156,14 +3207,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3173,14 +3224,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3189,14 +3240,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3206,14 +3257,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3222,14 +3273,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3239,11 +3290,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3262,7 +3313,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3272,14 +3323,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3305,14 +3356,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3321,28 +3372,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3354,31 +3405,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3387,31 +3438,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3420,31 +3471,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3453,28 +3504,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3486,28 +3537,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3519,31 +3570,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>204</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3552,31 +3603,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>95</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3585,66 +3636,264 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>228</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>32</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>29</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>224</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>4053.4749999999999</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>221</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>222</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
-        <v>223</v>
-      </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>230</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>16</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>29</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>231</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>233</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>46</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>29</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>215</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>234</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>32</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>29</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>219</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>235</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>236</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>29</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>101</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>237</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>16</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>29</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>170</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>4334.0450000000001</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>238</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>239</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>240</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4003,10 +4252,40 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -329,6 +329,15 @@
     <t>220.0000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
   </si>
   <si>
@@ -725,7 +734,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 8:59 PM</t>
+    <t>Saturday, 19 July, 2025 9:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2290,7 +2299,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2300,14 +2309,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2316,14 +2325,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2340,7 +2349,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2356,7 +2365,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2373,7 +2382,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2389,7 +2398,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2406,7 +2415,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2422,7 +2431,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2439,7 +2448,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2455,7 +2464,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2465,14 +2474,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2481,14 +2490,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2498,11 +2507,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2521,7 +2530,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2538,7 +2547,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2560,7 +2569,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2620,13 +2629,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2637,7 +2646,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2653,7 +2662,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2663,14 +2672,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2679,14 +2688,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2703,7 +2712,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2719,7 +2728,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,11 +2738,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2745,7 +2754,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2762,14 +2771,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2785,7 +2794,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2799,10 +2808,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2811,14 +2820,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,14 +2837,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2861,14 +2870,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2884,7 +2893,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,14 +2903,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2917,7 +2926,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2927,11 +2936,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2943,14 +2952,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2960,14 +2969,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2976,14 +2985,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3000,7 +3009,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3016,7 +3025,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3030,10 +3039,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3042,14 +3051,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,14 +3068,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3092,14 +3101,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3108,20 +3117,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3132,7 +3141,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3148,24 +3157,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3174,14 +3183,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,11 +3200,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3207,14 +3216,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3247,7 +3256,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,14 +3266,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3273,7 +3282,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3290,11 +3299,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3306,14 +3315,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3323,11 +3332,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3346,7 +3355,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,14 +3365,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3372,14 +3381,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,14 +3398,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3412,7 +3421,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3422,14 +3431,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,14 +3447,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3455,14 +3464,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3478,7 +3487,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3488,14 +3497,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3511,13 +3520,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3544,7 +3553,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3554,11 +3563,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3570,14 +3579,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3587,14 +3596,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>101</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>63</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3603,14 +3612,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3620,14 +3629,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3653,14 +3662,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3669,7 +3678,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3686,14 +3695,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3702,14 +3711,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3719,7 +3728,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3742,7 +3751,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3752,11 +3761,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3768,14 +3777,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3785,14 +3794,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3801,14 +3810,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3818,14 +3827,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>101</v>
+        <v>222</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3834,14 +3843,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3851,49 +3860,82 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>240</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>16</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>29</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>173</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
         <v>93</v>
       </c>
-      <c t="s" r="Q82" s="12">
+      <c t="s" r="Q83" s="12">
         <v>46</v>
       </c>
     </row>
-    <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>4334.0450000000001</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>238</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>239</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
-        <v>240</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4378.0450000000001</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>241</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>242</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>243</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4282,10 +4324,15 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -215,9 +227,6 @@
     <t>99.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>CONTROLOC 40MG I.V.VIAL</t>
   </si>
   <si>
@@ -302,6 +311,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
     <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
   </si>
   <si>
@@ -410,6 +431,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>MY-VITOS 30SOFT GELATIN CAPSULES</t>
   </si>
   <si>
@@ -431,9 +461,6 @@
     <t>NEURONTIN 300MG 20 CAPS</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>162.0000</t>
   </si>
   <si>
@@ -629,7 +656,10 @@
     <t>26.00</t>
   </si>
   <si>
-    <t>26.0000</t>
+    <t>VISCERALGINE 50MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>21.0000</t>
   </si>
   <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
@@ -734,7 +764,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 9:14 PM</t>
+    <t>Saturday, 19 July, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1458,7 +1488,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1467,31 +1497,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1513,18 +1543,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1550,11 +1580,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1566,14 +1596,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1583,11 +1613,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1599,14 +1629,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1623,7 +1653,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1689,7 +1719,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1705,7 +1735,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1715,14 +1745,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1731,7 +1761,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1748,14 +1778,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1764,14 +1794,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1781,14 +1811,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1797,14 +1827,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1814,11 +1844,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1830,14 +1860,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1847,14 +1877,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1863,14 +1893,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1887,7 +1917,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1903,7 +1933,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1913,14 +1943,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1946,11 +1976,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1962,14 +1992,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1983,7 +2013,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1995,14 +2025,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2012,11 +2042,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2035,7 +2065,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2045,11 +2075,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2061,14 +2091,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2078,7 +2108,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -2101,7 +2131,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2118,7 +2148,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2134,7 +2164,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2144,11 +2174,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2160,14 +2190,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2177,14 +2207,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2200,13 +2230,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2217,7 +2247,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2233,7 +2263,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2243,14 +2273,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2259,28 +2289,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2292,7 +2322,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2309,11 +2339,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2325,20 +2355,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2349,7 +2379,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2365,7 +2395,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2398,7 +2428,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2408,14 +2438,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2424,14 +2454,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2441,14 +2471,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2457,14 +2487,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2474,14 +2504,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2490,14 +2520,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2507,11 +2537,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2523,14 +2553,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2540,14 +2570,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2556,14 +2586,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2573,14 +2603,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2589,31 +2619,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2622,28 +2652,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2655,14 +2685,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2672,14 +2702,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2688,20 +2718,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2712,7 +2742,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2728,13 +2758,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2761,7 +2791,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2771,14 +2801,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2787,14 +2817,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2804,14 +2834,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2820,14 +2850,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2837,14 +2867,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2853,14 +2883,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2870,11 +2900,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2886,14 +2916,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2903,14 +2933,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2919,14 +2949,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2936,14 +2966,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2959,7 +2989,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2969,11 +2999,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2985,14 +3015,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3002,14 +3032,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3018,14 +3048,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3035,14 +3065,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3051,14 +3081,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3068,11 +3098,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3101,14 +3131,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3117,14 +3147,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3141,7 +3171,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3157,13 +3187,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3171,10 +3201,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3183,14 +3213,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3200,11 +3230,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3216,14 +3246,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3233,14 +3263,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3249,31 +3279,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3282,14 +3312,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3299,14 +3329,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3322,7 +3352,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3332,14 +3362,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3348,14 +3378,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3365,14 +3395,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3381,14 +3411,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3398,14 +3428,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3414,14 +3444,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3431,11 +3461,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3447,14 +3477,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3471,7 +3501,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3487,7 +3517,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3497,14 +3527,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3513,14 +3543,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3530,11 +3560,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3546,31 +3576,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3579,31 +3609,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3612,31 +3642,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>101</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3645,31 +3675,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3678,31 +3708,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3711,28 +3741,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3744,31 +3774,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3784,24 +3814,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3810,31 +3840,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3843,28 +3873,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>101</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3876,7 +3906,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3889,53 +3919,185 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>173</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>93</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4378.0450000000001</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>241</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>242</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
-        <v>243</v>
-      </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>246</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>50</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>33</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>228</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>247</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>36</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>33</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>232</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>248</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>249</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>33</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>108</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>250</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>16</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>33</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>182</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4467.3249999999998</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>251</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>252</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>253</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4329,10 +4491,30 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -674,6 +674,12 @@
     <t>14.4000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>10:2</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -731,7 +737,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14.0000</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -764,7 +773,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 9:16 PM</t>
+    <t>Saturday, 19 July, 2025 9:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3659,14 +3668,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3675,14 +3684,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3696,10 +3705,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3708,28 +3717,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3741,14 +3750,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3758,11 +3767,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3774,14 +3783,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3791,14 +3800,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3814,7 +3823,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>36</v>
+        <v>237</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3824,14 +3833,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3840,7 +3849,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3857,14 +3866,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3890,14 +3899,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3906,14 +3915,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3923,7 +3932,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -3946,7 +3955,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3956,11 +3965,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3972,14 +3981,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3989,14 +3998,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4005,14 +4014,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4022,14 +4031,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4038,14 +4047,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4055,49 +4064,82 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>253</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>16</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>33</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>182</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>96</v>
       </c>
-      <c t="s" r="Q87" s="12">
+      <c t="s" r="Q88" s="12">
         <v>50</v>
       </c>
     </row>
-    <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4467.3249999999998</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>251</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>252</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
-        <v>253</v>
-      </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>4486.1549999999997</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>254</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>255</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>256</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4511,10 +4553,15 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -149,13 +149,13 @@
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>3:5</t>
+    <t>3:2</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>7.6800</t>
+    <t>31.6800</t>
   </si>
   <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
@@ -332,6 +332,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
   </si>
   <si>
@@ -494,7 +503,10 @@
     <t>135.00</t>
   </si>
   <si>
-    <t>89.1000</t>
+    <t>133.6500</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>OMEZ 20MG 14 CAPS.</t>
@@ -536,9 +548,6 @@
     <t>OXITROPIL 1200 MG 60 TAB</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>123.00</t>
   </si>
   <si>
@@ -737,10 +746,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>11:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -767,13 +776,10 @@
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 9:19 PM</t>
+    <t>Saturday, 19 July, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1695,7 +1701,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2338,7 +2344,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2355,7 +2361,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2371,13 +2377,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2404,13 +2410,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2437,7 +2443,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2447,14 +2453,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2463,14 +2469,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2487,7 +2493,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2503,7 +2509,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2520,7 +2526,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2536,7 +2542,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2553,7 +2559,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2569,7 +2575,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2586,7 +2592,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2602,7 +2608,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2612,14 +2618,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2628,14 +2634,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2645,11 +2651,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2668,7 +2674,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2685,7 +2691,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2701,7 +2707,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2718,7 +2724,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2734,13 +2740,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2751,7 +2757,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2800,24 +2806,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2826,14 +2832,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2843,14 +2849,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2859,14 +2865,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2883,7 +2889,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2899,7 +2905,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2909,11 +2915,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2925,7 +2931,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2942,14 +2948,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2965,7 +2971,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2979,10 +2985,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2991,14 +2997,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3008,14 +3014,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3024,14 +3030,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3041,14 +3047,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3057,14 +3063,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3074,14 +3080,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3090,14 +3096,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3107,11 +3113,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3123,14 +3129,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3140,14 +3146,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3163,7 +3169,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3180,7 +3186,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3196,7 +3202,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3210,10 +3216,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3222,14 +3228,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3239,14 +3245,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3272,14 +3278,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3288,20 +3294,20 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3312,7 +3318,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3328,24 +3334,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3354,14 +3360,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3371,11 +3377,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3387,14 +3393,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3427,7 +3433,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,14 +3443,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>58</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3453,7 +3459,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3470,11 +3476,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3486,14 +3492,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3503,11 +3509,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3526,7 +3532,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3536,14 +3542,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3552,14 +3558,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3569,14 +3575,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3585,14 +3591,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3602,14 +3608,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3618,14 +3624,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>50</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3635,11 +3641,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3651,14 +3657,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3668,11 +3674,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>99</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3684,14 +3690,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3701,14 +3707,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3724,7 +3730,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3734,14 +3740,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3757,13 +3763,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3790,7 +3796,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3800,11 +3806,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3816,14 +3822,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3833,14 +3839,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>67</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3849,14 +3855,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3866,14 +3872,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>111</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3899,14 +3905,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>243</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3932,14 +3938,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3948,14 +3954,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3965,7 +3971,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -3988,7 +3994,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3998,11 +4004,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4014,14 +4020,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4031,14 +4037,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4047,14 +4053,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>36</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4064,14 +4070,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4080,14 +4086,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4097,49 +4103,82 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>255</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>16</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>33</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>185</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
         <v>96</v>
       </c>
-      <c t="s" r="Q88" s="12">
+      <c t="s" r="Q89" s="12">
         <v>50</v>
       </c>
     </row>
-    <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>4486.1549999999997</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>254</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
-        <v>255</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>4650.7049999999999</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
         <v>256</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>257</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>258</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4558,10 +4597,15 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>ARTHFREE 20MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -341,6 +350,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>FLIX NASAL SPRAY 50 MCG/METERED SPRAY DOSE</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
   </si>
   <si>
@@ -419,7 +437,7 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>9:0</t>
+    <t>8:2</t>
   </si>
   <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
@@ -569,6 +587,15 @@
     <t>24.00</t>
   </si>
   <si>
+    <t xml:space="preserve">PRETOPRAZAN  20MG  14CAPS</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
@@ -779,7 +806,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 9:20 PM</t>
+    <t>Saturday, 19 July, 2025 9:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1618,7 +1645,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1628,14 +1655,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1651,7 +1678,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1661,7 +1688,7 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
@@ -1684,7 +1711,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1694,14 +1721,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1710,14 +1737,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1727,14 +1754,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1743,14 +1770,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1760,14 +1787,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1776,14 +1803,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1800,7 +1827,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1833,7 +1860,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1849,7 +1876,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1866,7 +1893,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1882,7 +1909,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1892,11 +1919,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1908,14 +1935,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1925,14 +1952,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1941,14 +1968,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1965,7 +1992,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1981,7 +2008,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1991,14 +2018,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2024,11 +2051,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2040,14 +2067,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2061,7 +2088,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2073,14 +2100,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2090,11 +2117,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2113,7 +2140,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2123,11 +2150,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2139,14 +2166,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2156,7 +2183,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2179,7 +2206,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2196,7 +2223,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2212,7 +2239,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2222,11 +2249,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2238,14 +2265,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2255,14 +2282,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2278,7 +2305,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2288,14 +2315,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2304,20 +2331,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2328,7 +2355,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2344,13 +2371,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2361,7 +2388,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2377,7 +2404,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2394,7 +2421,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2410,13 +2437,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2443,7 +2470,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2476,24 +2503,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2502,14 +2529,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2519,11 +2546,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2535,14 +2562,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2559,7 +2586,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2575,7 +2602,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2592,7 +2619,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2608,7 +2635,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2625,7 +2652,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2641,7 +2668,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2651,11 +2678,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2667,14 +2694,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2684,14 +2711,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2700,14 +2727,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2717,14 +2744,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2740,7 +2767,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2779,7 +2806,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2806,13 +2833,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2823,7 +2850,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2839,24 +2866,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2865,20 +2892,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2889,7 +2916,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2905,7 +2932,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2915,14 +2942,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2931,14 +2958,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2948,14 +2975,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2964,14 +2991,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2981,14 +3008,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>165</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2997,14 +3024,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3014,14 +3041,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3037,7 +3064,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3047,14 +3074,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3063,14 +3090,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3080,11 +3107,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3103,7 +3130,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3113,7 +3140,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>58</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3136,7 +3163,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3146,14 +3173,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3162,14 +3189,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3179,14 +3206,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3195,14 +3222,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3212,14 +3239,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3235,7 +3262,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3249,10 +3276,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3261,14 +3288,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3278,11 +3305,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3294,14 +3321,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3315,10 +3342,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3327,14 +3354,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3344,14 +3371,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3360,14 +3387,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3377,11 +3404,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3393,14 +3420,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3410,14 +3437,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3426,31 +3453,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3459,14 +3486,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3476,14 +3503,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3499,7 +3526,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3509,14 +3536,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3525,14 +3552,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3542,14 +3569,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3558,14 +3585,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3575,14 +3602,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3591,14 +3618,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3608,11 +3635,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3624,14 +3651,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3641,14 +3668,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3657,14 +3684,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>53</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3674,11 +3701,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3690,14 +3717,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3707,14 +3734,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3723,14 +3750,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3740,14 +3767,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3763,7 +3790,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3773,14 +3800,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3789,31 +3816,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>169</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3835,7 +3862,7 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3843,10 +3870,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3855,31 +3882,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>240</v>
+        <v>57</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>67</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3895,7 +3922,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3912,7 +3939,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3928,7 +3955,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3938,14 +3965,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>246</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3954,14 +3981,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3971,14 +3998,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>117</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3987,14 +4014,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4004,14 +4031,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4020,14 +4047,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4037,14 +4064,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4053,7 +4080,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4070,14 +4097,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>106</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4086,14 +4113,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4103,11 +4130,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>112</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4119,14 +4146,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4136,49 +4163,148 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>96</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>4650.7049999999999</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>256</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
-        <v>257</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
-        <v>258</v>
-      </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>262</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>36</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>33</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>246</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>263</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>255</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>33</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>117</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>264</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>16</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>33</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>191</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4968.6750000000002</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>265</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>266</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>267</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4602,10 +4728,25 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -806,7 +806,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 9:25 PM</t>
+    <t>Saturday, 19 July, 2025 9:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -179,6 +179,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CERELAC قمح وتفاح بدون لبن</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -203,9 +212,6 @@
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>80.0000</t>
   </si>
   <si>
@@ -221,9 +227,6 @@
     <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -311,6 +314,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>EVASTINE 10MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -368,6 +380,12 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>FORTYMOX 0.5% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
     <t>FRIZZ OFF CREAM CREAM</t>
   </si>
   <si>
@@ -653,9 +671,6 @@
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
     <t>17.8200</t>
   </si>
   <si>
@@ -668,9 +683,6 @@
     <t>TORSAMOLEX 20MG 20 TABS</t>
   </si>
   <si>
-    <t>62.00</t>
-  </si>
-  <si>
     <t>URIPAN X.R. 10 MG 30 TAB.</t>
   </si>
   <si>
@@ -713,7 +725,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>10:2</t>
+    <t>10:1</t>
+  </si>
+  <si>
+    <t>33.6600</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -773,40 +788,40 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>22.0000</t>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>شاور جل بلو لاين</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>صابون ديتول العنايه بالبشره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
     <t>11:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>شاور جل بلو لاين</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>صابون ديتول العنايه بالبشره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الصغير</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 9:26 PM</t>
+    <t>Saturday, 19 July, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1810,24 +1825,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1836,14 +1851,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1860,7 +1875,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1893,7 +1908,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1909,7 +1924,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1919,14 +1934,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1935,14 +1950,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1952,7 +1967,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1975,7 +1990,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1985,14 +2000,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2001,14 +2016,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2018,14 +2033,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2034,14 +2049,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2051,14 +2066,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2067,14 +2082,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2084,11 +2099,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2100,14 +2115,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2117,11 +2132,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2133,14 +2148,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2150,11 +2165,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2166,14 +2181,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2187,7 +2202,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2199,14 +2214,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2216,11 +2231,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2232,14 +2247,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2249,14 +2264,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2265,7 +2280,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2282,11 +2297,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2298,14 +2313,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2315,14 +2330,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2331,14 +2346,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2348,14 +2363,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2364,31 +2379,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2397,14 +2412,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2414,14 +2429,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2430,28 +2445,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2463,14 +2478,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2480,14 +2495,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2496,28 +2511,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2529,14 +2544,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2546,11 +2561,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2562,14 +2577,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2579,14 +2594,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2595,28 +2610,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2628,14 +2643,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2645,14 +2660,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2661,14 +2676,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2678,11 +2693,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2694,14 +2709,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2711,11 +2726,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2727,14 +2742,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2744,11 +2759,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>30</v>
@@ -2760,14 +2775,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2777,11 +2792,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2793,14 +2808,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2810,11 +2825,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2826,14 +2841,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2843,14 +2858,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2859,31 +2874,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2892,7 +2907,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2905,15 +2920,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2925,14 +2940,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2942,14 +2957,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2958,31 +2973,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2991,7 +3006,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3004,15 +3019,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3024,14 +3039,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3041,14 +3056,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3057,14 +3072,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3074,14 +3089,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>171</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3090,14 +3105,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3107,14 +3122,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3123,14 +3138,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3140,11 +3155,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3156,14 +3171,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3173,14 +3188,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3206,14 +3221,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3222,14 +3237,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3239,11 +3254,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3255,14 +3270,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3272,14 +3287,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3288,14 +3303,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3305,14 +3320,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3321,14 +3336,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3338,11 +3353,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3354,31 +3369,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3387,14 +3402,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>43</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3404,11 +3419,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3420,14 +3435,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3437,14 +3452,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3453,14 +3468,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3470,14 +3485,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3486,14 +3501,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3503,11 +3518,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3519,14 +3534,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3536,14 +3551,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3552,31 +3567,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3585,14 +3600,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>36</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3602,14 +3617,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3618,14 +3633,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3635,14 +3650,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3651,14 +3666,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3668,14 +3683,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3684,14 +3699,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3701,14 +3716,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3717,14 +3732,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3734,11 +3749,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>124</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3750,14 +3765,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3767,14 +3782,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3783,14 +3798,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3800,11 +3815,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3816,14 +3831,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3833,14 +3848,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3849,14 +3864,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3866,14 +3881,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3882,14 +3897,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>57</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3899,14 +3914,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3915,31 +3930,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>105</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3948,31 +3963,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3981,31 +3996,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>249</v>
+        <v>60</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>117</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4014,14 +4029,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4031,14 +4046,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4047,14 +4062,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4064,14 +4079,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>255</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4080,14 +4095,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>36</v>
+        <v>254</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4097,14 +4112,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>121</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4113,14 +4128,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4130,14 +4145,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4146,14 +4161,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4167,10 +4182,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>243</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4179,7 +4194,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4196,14 +4211,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4212,14 +4227,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4229,11 +4244,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>118</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4245,14 +4260,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4262,49 +4277,148 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>99</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>266</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>36</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>33</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>251</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>267</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>268</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>33</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>121</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>269</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>16</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>33</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>197</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q95" s="12">
         <v>53</v>
       </c>
     </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4968.6750000000002</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>265</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>266</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
-        <v>267</v>
-      </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>5116.5050000000001</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>270</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>271</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>272</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4743,10 +4857,25 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -167,6 +167,15 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>CARLA EXTRA 30 TAB</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -452,6 +461,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -476,6 +494,9 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
     <t>MOTILIUM 10MG 40 F.C.TAB.</t>
   </si>
   <si>
@@ -524,12 +545,6 @@
     <t>NORGESIC 20 TAB.</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
@@ -821,7 +836,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 9:30 PM</t>
+    <t>Saturday, 19 July, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1792,7 +1807,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1802,14 +1817,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1818,20 +1833,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1842,7 +1857,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1858,24 +1873,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1884,14 +1899,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1908,7 +1923,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1934,14 +1949,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1950,14 +1965,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1967,14 +1982,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1990,7 +2005,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2000,11 +2015,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2016,14 +2031,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2033,14 +2048,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2049,14 +2064,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2073,7 +2088,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2089,7 +2104,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2099,14 +2114,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2132,11 +2147,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2148,14 +2163,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2169,7 +2184,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2181,14 +2196,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2198,11 +2213,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2221,7 +2236,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2235,7 +2250,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2247,14 +2262,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2264,7 +2279,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2287,7 +2302,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2304,7 +2319,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2320,7 +2335,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2330,11 +2345,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2346,14 +2361,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2363,14 +2378,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2386,7 +2401,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2419,7 +2434,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2429,14 +2444,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2445,20 +2460,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2469,7 +2484,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2485,13 +2500,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2502,7 +2517,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2518,7 +2533,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2535,7 +2550,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2551,7 +2566,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2584,7 +2599,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2598,7 +2613,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2610,28 +2625,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2650,13 +2665,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2683,7 +2698,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2693,14 +2708,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2709,14 +2724,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2733,7 +2748,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2749,7 +2764,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2766,7 +2781,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2782,7 +2797,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2799,7 +2814,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2815,7 +2830,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2832,7 +2847,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2848,7 +2863,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2858,14 +2873,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2874,14 +2889,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2891,14 +2906,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2907,14 +2922,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2924,14 +2939,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2947,7 +2962,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2986,7 +3001,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3013,21 +3028,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3039,14 +3054,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3056,14 +3071,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3072,31 +3087,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3105,7 +3120,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3118,15 +3133,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3138,14 +3153,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3155,14 +3170,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3171,14 +3186,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3195,7 +3210,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>177</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3204,14 +3219,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3221,14 +3236,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3237,14 +3252,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3254,11 +3269,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3270,14 +3285,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3287,14 +3302,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3303,14 +3318,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3320,14 +3335,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3336,14 +3351,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3353,11 +3368,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3369,14 +3384,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3386,14 +3401,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3402,14 +3417,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3419,14 +3434,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3435,14 +3450,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3452,11 +3467,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3468,31 +3483,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3501,14 +3516,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3518,11 +3533,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3534,14 +3549,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3551,14 +3566,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3567,14 +3582,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3584,14 +3599,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3600,14 +3615,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3617,11 +3632,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3633,14 +3648,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3650,14 +3665,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3666,31 +3681,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3699,14 +3714,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>36</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3716,14 +3731,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>64</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3732,14 +3747,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3749,14 +3764,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>62</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3772,7 +3787,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3782,14 +3797,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3798,14 +3813,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3815,14 +3830,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3831,14 +3846,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3848,11 +3863,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3864,14 +3879,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3881,14 +3896,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3897,14 +3912,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>56</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3914,11 +3929,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3930,14 +3945,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3947,14 +3962,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3963,14 +3978,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>56</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3980,14 +3995,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3996,14 +4011,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4013,14 +4028,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4029,31 +4044,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4062,31 +4077,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4095,31 +4110,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>254</v>
+        <v>63</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>58</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4128,14 +4143,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4145,14 +4160,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4161,14 +4176,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4178,14 +4193,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>92</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>259</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4194,14 +4209,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4211,14 +4226,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>124</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4227,14 +4242,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4244,14 +4259,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4260,14 +4275,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4281,10 +4296,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>248</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4293,7 +4308,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4310,14 +4325,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>113</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4333,7 +4348,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4343,11 +4358,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>121</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4359,14 +4374,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4376,49 +4391,148 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>5116.5050000000001</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>270</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>271</v>
       </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>36</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>33</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>256</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>272</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>273</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>33</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>124</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>274</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>16</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>33</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>202</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5323.5050000000001</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>275</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>276</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>277</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4872,10 +4986,25 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -836,7 +836,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 9:31 PM</t>
+    <t>Saturday, 19 July, 2025 9:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -353,6 +353,15 @@
     <t>17.2800</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
   </si>
   <si>
@@ -617,9 +626,6 @@
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRETOPRAZAN  20MG  14CAPS</t>
   </si>
   <si>
@@ -836,7 +842,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 9:42 PM</t>
+    <t>Saturday, 19 July, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2500,13 +2506,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2517,7 +2523,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2533,13 +2539,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2550,7 +2556,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2566,7 +2572,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2583,7 +2589,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2599,7 +2605,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2646,7 +2652,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2658,28 +2664,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2698,13 +2704,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2731,7 +2737,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2741,14 +2747,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2757,14 +2763,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2781,7 +2787,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2797,7 +2803,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2814,7 +2820,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2830,7 +2836,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2847,7 +2853,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2863,7 +2869,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2880,7 +2886,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2896,7 +2902,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2929,7 +2935,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2939,14 +2945,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2955,14 +2961,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2972,14 +2978,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2995,7 +3001,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3012,7 +3018,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3028,7 +3034,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3038,11 +3044,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3054,7 +3060,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3071,14 +3077,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3094,13 +3100,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3111,7 +3117,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3160,24 +3166,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3186,14 +3192,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3203,14 +3209,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3219,14 +3225,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3236,14 +3242,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3252,14 +3258,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3269,11 +3275,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3285,14 +3291,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3302,14 +3308,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3318,14 +3324,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3335,14 +3341,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3351,14 +3357,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3368,14 +3374,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3401,14 +3407,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3424,7 +3430,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3434,14 +3440,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3457,7 +3463,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3467,11 +3473,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3483,14 +3489,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3500,14 +3506,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3523,7 +3529,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3540,7 +3546,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3556,7 +3562,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3570,10 +3576,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3582,28 +3588,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3615,31 +3621,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>36</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3648,14 +3654,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3665,14 +3671,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3681,31 +3687,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3714,31 +3720,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3747,14 +3753,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3764,11 +3770,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3780,14 +3786,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3797,7 +3803,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3820,7 +3826,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3830,14 +3836,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3863,11 +3869,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3879,14 +3885,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3896,11 +3902,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3912,14 +3918,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3929,14 +3935,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3952,7 +3958,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3962,14 +3968,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3985,7 +3991,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3995,14 +4001,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4018,7 +4024,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>56</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4028,11 +4034,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4044,14 +4050,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4061,14 +4067,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>108</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4077,14 +4083,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4094,14 +4100,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4110,14 +4116,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>63</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4131,10 +4137,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4143,28 +4149,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4176,14 +4182,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4193,11 +4199,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4209,14 +4215,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4226,14 +4232,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>124</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4249,7 +4255,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>36</v>
+        <v>261</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4259,14 +4265,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>127</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4275,7 +4281,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4292,14 +4298,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>264</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4325,14 +4331,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q93" s="12">
         <v>266</v>
-      </c>
-      <c t="s" r="Q93" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4348,7 +4354,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4358,11 +4364,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4374,14 +4380,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4391,11 +4397,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4407,14 +4413,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4424,14 +4430,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>116</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4440,14 +4446,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>36</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4457,14 +4463,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>124</v>
+        <v>258</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4480,7 +4486,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4490,49 +4496,82 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>276</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>16</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>33</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>115</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
         <v>103</v>
       </c>
-      <c t="s" r="Q98" s="12">
+      <c t="s" r="Q99" s="12">
         <v>56</v>
       </c>
     </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5323.5050000000001</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>275</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>276</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>5327.3450000000003</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
         <v>277</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>278</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>279</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5001,10 +5040,15 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -842,7 +842,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 9:43 PM</t>
+    <t>Saturday, 19 July, 2025 9:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -842,7 +842,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 9:46 PM</t>
+    <t>Saturday, 19 July, 2025 9:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>ARBATEG 2% SUSP. 100ML</t>
   </si>
   <si>
@@ -266,6 +275,12 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
     <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -299,6 +314,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
   </si>
   <si>
@@ -440,7 +464,7 @@
     <t>124.00</t>
   </si>
   <si>
-    <t>124.0000</t>
+    <t>248.0000</t>
   </si>
   <si>
     <t>HEPATO-FORTE 30 CAPS.</t>
@@ -464,12 +488,6 @@
     <t>IBIAMOX 500MG 12 CAPS.</t>
   </si>
   <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
     <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
   </si>
   <si>
@@ -479,6 +497,9 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -695,6 +716,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
   </si>
   <si>
@@ -746,10 +776,7 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>10:1</t>
-  </si>
-  <si>
-    <t>33.6600</t>
+    <t>50.4900</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -815,7 +842,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>شاور جل بلو لاين</t>
@@ -842,7 +869,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 9:51 PM</t>
+    <t>Saturday, 19 July, 2025 9:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1648,7 +1675,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1658,14 +1685,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1674,14 +1701,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1698,7 +1725,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1714,7 +1741,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1724,14 +1751,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1747,7 +1774,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1757,7 +1784,7 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
@@ -1780,7 +1807,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1790,14 +1817,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1806,14 +1833,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1830,7 +1857,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1846,7 +1873,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1856,14 +1883,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1872,20 +1899,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1896,7 +1923,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1912,24 +1939,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1938,14 +1965,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1962,7 +1989,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1988,14 +2015,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2004,14 +2031,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2021,14 +2048,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2044,7 +2071,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2054,11 +2081,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2070,14 +2097,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2087,14 +2114,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2103,14 +2130,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2127,7 +2154,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2143,7 +2170,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2153,14 +2180,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2186,11 +2213,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2202,14 +2229,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2219,11 +2246,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2235,14 +2262,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2252,7 +2279,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2275,7 +2302,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2285,11 +2312,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2308,7 +2335,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2318,7 +2345,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2341,7 +2368,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2351,14 +2378,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2367,14 +2394,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2384,7 +2411,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2407,7 +2434,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2440,7 +2467,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2457,7 +2484,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2473,7 +2500,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2483,14 +2510,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2499,14 +2526,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2516,11 +2543,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2532,31 +2559,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2565,14 +2592,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2582,14 +2609,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2598,14 +2625,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2615,14 +2642,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2631,28 +2658,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2664,14 +2691,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2681,14 +2708,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2704,13 +2731,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2737,7 +2764,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2770,7 +2797,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2780,14 +2807,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2796,28 +2823,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2829,14 +2856,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2846,14 +2873,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2862,14 +2889,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2879,11 +2906,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2895,14 +2922,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2912,14 +2939,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2928,14 +2955,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2945,14 +2972,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2961,14 +2988,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2978,14 +3005,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3001,7 +3028,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3011,14 +3038,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3027,14 +3054,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3044,11 +3071,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3060,14 +3087,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3077,11 +3104,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3093,14 +3120,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3110,14 +3137,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3126,31 +3153,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3159,28 +3186,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3192,14 +3219,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3209,14 +3236,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3225,14 +3252,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3242,11 +3269,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3258,28 +3285,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3291,28 +3318,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3324,14 +3351,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3341,14 +3368,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>185</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3357,14 +3384,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3374,11 +3401,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3390,14 +3417,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3407,11 +3434,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3423,14 +3450,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3440,14 +3467,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3456,14 +3483,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3473,14 +3500,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3489,14 +3516,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3506,14 +3533,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3522,14 +3549,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3539,14 +3566,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>67</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3555,14 +3582,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3572,11 +3599,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3588,14 +3615,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3605,11 +3632,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3621,28 +3648,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3654,14 +3681,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3671,14 +3698,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3687,14 +3714,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3704,14 +3731,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3720,31 +3747,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3753,31 +3780,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>39</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3786,14 +3813,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3803,11 +3830,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3819,14 +3846,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3836,14 +3863,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3852,31 +3879,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>67</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3885,14 +3912,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3902,14 +3929,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3918,14 +3945,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3935,14 +3962,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3951,14 +3978,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3968,11 +3995,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3984,14 +4011,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4001,11 +4028,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4024,7 +4051,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4034,14 +4061,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4057,7 +4084,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4067,14 +4094,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>138</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4083,14 +4110,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4100,14 +4127,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>108</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4116,14 +4143,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>59</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4133,14 +4160,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4149,14 +4176,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4166,11 +4193,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4182,31 +4209,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4215,31 +4242,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4248,31 +4275,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>261</v>
+        <v>86</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>56</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4281,31 +4308,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>36</v>
+        <v>257</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4314,31 +4341,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>95</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>266</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4347,14 +4374,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4368,7 +4395,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4380,14 +4407,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4397,11 +4424,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4413,14 +4440,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>56</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4430,14 +4457,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>255</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4446,14 +4473,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4463,11 +4490,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>119</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>23</v>
@@ -4486,7 +4513,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4496,14 +4523,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>127</v>
+        <v>258</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4519,7 +4546,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4529,49 +4556,214 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>103</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>5327.3450000000003</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>277</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>278</v>
       </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>16</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>33</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
         <v>279</v>
       </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>281</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>59</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>33</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>263</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>282</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>39</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>33</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>267</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>283</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>284</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>33</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>135</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>285</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>16</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>33</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>123</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>5651.6350000000002</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>286</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>287</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>288</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5045,10 +5237,35 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -176,6 +176,15 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>CALDIN ZINC SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>CARLA EXTRA 30 TAB</t>
   </si>
   <si>
@@ -323,6 +332,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">DROPEGEN 30 ML  DROPS</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
   </si>
   <si>
@@ -335,12 +353,6 @@
     <t>ECTOMETHRIN 5% LOTION 50 ML</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>EPICOGEL SUSP. 180ML</t>
   </si>
   <si>
@@ -458,6 +470,15 @@
     <t>11.5200</t>
   </si>
   <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -722,9 +743,6 @@
     <t>39.00</t>
   </si>
   <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
   </si>
   <si>
@@ -869,7 +887,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 9:52 PM</t>
+    <t>Saturday, 19 July, 2025 10:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1906,7 +1924,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1916,14 +1934,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1932,20 +1950,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1956,7 +1974,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1972,24 +1990,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1998,14 +2016,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2022,7 +2040,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2048,14 +2066,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2064,14 +2082,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2081,14 +2099,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2104,7 +2122,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2114,11 +2132,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2130,14 +2148,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2147,14 +2165,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2163,14 +2181,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2187,7 +2205,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2203,7 +2221,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2213,14 +2231,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2250,7 +2268,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2262,14 +2280,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2279,11 +2297,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2295,14 +2313,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2316,7 +2334,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2328,14 +2346,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2345,11 +2363,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2368,7 +2386,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2382,7 +2400,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2394,7 +2412,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2411,14 +2429,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2434,7 +2452,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2451,7 +2469,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2467,13 +2485,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2500,7 +2518,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2510,14 +2528,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2526,14 +2544,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2543,14 +2561,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2559,14 +2577,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2576,14 +2594,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2592,14 +2610,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2609,14 +2627,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2625,14 +2643,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2642,11 +2660,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2658,31 +2676,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2691,14 +2709,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2708,11 +2726,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2724,28 +2742,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2757,14 +2775,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2774,14 +2792,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2790,14 +2808,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2807,11 +2825,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2823,28 +2841,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2856,14 +2874,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2873,11 +2891,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2889,31 +2907,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2922,14 +2940,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2939,14 +2957,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2955,14 +2973,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2972,14 +2990,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2988,14 +3006,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3005,11 +3023,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3021,14 +3039,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3038,14 +3056,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3061,7 +3079,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3078,7 +3096,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3094,7 +3112,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3104,14 +3122,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3120,14 +3138,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3137,14 +3155,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3153,14 +3171,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3170,14 +3188,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3186,14 +3204,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3203,11 +3221,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3219,14 +3237,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3236,14 +3254,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3259,7 +3277,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3298,7 +3316,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3325,21 +3343,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3351,14 +3369,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3368,14 +3386,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3384,31 +3402,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3417,7 +3435,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3430,15 +3448,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3457,7 +3475,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3467,14 +3485,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3483,14 +3501,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3500,14 +3518,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>192</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3516,14 +3534,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3533,14 +3551,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3556,7 +3574,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3566,11 +3584,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3582,14 +3600,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3599,14 +3617,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3615,14 +3633,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3632,14 +3650,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3648,14 +3666,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3665,11 +3683,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3688,7 +3706,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3698,14 +3716,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>66</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3721,7 +3739,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3738,7 +3756,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3754,7 +3772,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3764,11 +3782,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3787,13 +3805,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3804,7 +3822,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3820,7 +3838,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>216</v>
+        <v>46</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3830,7 +3848,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3853,7 +3871,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3863,14 +3881,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3879,14 +3897,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3896,14 +3914,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3912,14 +3930,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3929,11 +3947,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3945,14 +3963,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3962,14 +3980,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3978,31 +3996,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>113</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4011,14 +4029,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4028,14 +4046,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4044,14 +4062,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>39</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4061,14 +4079,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4084,7 +4102,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4094,14 +4112,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>68</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4110,14 +4128,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4127,14 +4145,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4150,7 +4168,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4160,14 +4178,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4183,7 +4201,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4193,11 +4211,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>142</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4209,14 +4227,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4226,14 +4244,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4249,7 +4267,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>62</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4259,11 +4277,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4275,14 +4293,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4292,14 +4310,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>116</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>192</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4308,14 +4326,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>257</v>
+        <v>62</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4325,14 +4343,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4341,14 +4359,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4358,14 +4376,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4374,31 +4392,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>120</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4407,31 +4425,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4440,31 +4458,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>69</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>64</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4473,14 +4491,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4490,14 +4508,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4506,14 +4524,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4523,14 +4541,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>100</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>275</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4539,14 +4557,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4556,14 +4574,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4572,14 +4590,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4589,14 +4607,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4605,14 +4623,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4622,14 +4640,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>264</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4655,14 +4673,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4671,14 +4689,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>284</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4688,11 +4706,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4704,14 +4722,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4721,49 +4739,148 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>123</v>
+        <v>269</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>111</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>5651.6350000000002</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>286</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>287</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>288</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>39</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>33</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>273</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>289</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>290</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>33</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>139</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>291</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>16</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>33</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>127</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>5877.9949999999999</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>292</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>293</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>294</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5262,10 +5379,25 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -887,7 +887,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 10:02 PM</t>
+    <t>Saturday, 19 July, 2025 10:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -155,6 +155,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
     <t>AUGMENTIN 457MG/5ML SUSP. 70 ML</t>
   </si>
   <si>
@@ -887,7 +896,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 10:15 PM</t>
+    <t>Saturday, 19 July, 2025 10:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1858,7 +1867,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1868,14 +1877,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1884,14 +1893,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1908,7 +1917,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1957,7 +1966,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1967,14 +1976,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1983,20 +1992,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2007,7 +2016,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2023,24 +2032,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2049,14 +2058,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2073,7 +2082,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2099,14 +2108,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2115,14 +2124,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2132,14 +2141,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2155,7 +2164,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2165,11 +2174,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2214,14 +2223,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2238,7 +2247,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2254,7 +2263,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2264,14 +2273,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2301,7 +2310,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2313,14 +2322,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2330,11 +2339,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2346,14 +2355,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2367,7 +2376,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2379,14 +2388,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2396,11 +2405,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2419,7 +2428,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2429,11 +2438,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2445,7 +2454,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2462,14 +2471,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2485,13 +2494,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2518,13 +2527,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2535,7 +2544,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2551,7 +2560,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2561,14 +2570,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2577,14 +2586,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2594,11 +2603,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2610,14 +2619,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2627,14 +2636,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2650,7 +2659,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2683,7 +2692,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2693,14 +2702,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2709,14 +2718,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2733,7 +2742,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2749,13 +2758,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2766,7 +2775,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2782,13 +2791,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2799,7 +2808,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2815,7 +2824,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2832,7 +2841,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2848,7 +2857,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2881,7 +2890,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2895,7 +2904,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2907,28 +2916,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2947,13 +2956,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2980,7 +2989,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2990,14 +2999,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3006,14 +3015,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3046,7 +3055,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3063,7 +3072,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3079,7 +3088,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3096,7 +3105,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3112,7 +3121,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3129,7 +3138,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3145,7 +3154,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3155,14 +3164,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3171,14 +3180,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3188,11 +3197,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3211,7 +3220,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3221,11 +3230,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3237,14 +3246,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3254,14 +3263,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3270,14 +3279,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3287,14 +3296,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>56</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3310,7 +3319,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3327,7 +3336,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3343,7 +3352,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3353,11 +3362,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3369,7 +3378,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3386,14 +3395,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3409,13 +3418,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3426,7 +3435,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3475,24 +3484,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3501,14 +3510,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3518,14 +3527,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3534,14 +3543,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3551,14 +3560,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3567,14 +3576,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3584,11 +3593,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3600,14 +3609,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3617,14 +3626,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>199</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3633,14 +3642,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3650,14 +3659,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3666,14 +3675,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3683,14 +3692,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>70</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3716,14 +3725,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3739,7 +3748,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3749,14 +3758,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3772,7 +3781,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3782,11 +3791,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3798,14 +3807,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3815,14 +3824,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3838,7 +3847,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3855,7 +3864,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3871,7 +3880,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3881,14 +3890,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>127</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>103</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3897,28 +3906,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3937,24 +3946,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>223</v>
+        <v>39</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3980,14 +3989,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3996,20 +4005,20 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4020,7 +4029,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4036,24 +4045,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>233</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4062,14 +4071,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4079,11 +4088,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4095,14 +4104,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>62</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4112,11 +4121,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>117</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4128,14 +4137,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4145,14 +4154,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>47</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4161,7 +4170,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4178,14 +4187,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4194,7 +4203,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4211,11 +4220,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>71</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4227,14 +4236,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4244,11 +4253,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>145</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4267,7 +4276,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4277,14 +4286,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4293,14 +4302,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4310,14 +4319,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4326,14 +4335,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4343,14 +4352,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4359,14 +4368,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4376,11 +4385,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4392,14 +4401,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4409,14 +4418,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>120</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>199</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4425,14 +4434,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>263</v>
+        <v>92</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4442,14 +4451,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>123</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>62</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4465,7 +4474,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4475,14 +4484,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4498,13 +4507,13 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4531,7 +4540,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4541,11 +4550,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4557,14 +4566,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4574,14 +4583,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>139</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>67</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4590,14 +4599,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>39</v>
+        <v>279</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4607,14 +4616,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4640,14 +4649,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>103</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>281</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4656,7 +4665,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4673,14 +4682,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>62</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4689,14 +4698,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4706,14 +4715,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4729,7 +4738,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4739,11 +4748,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4755,14 +4764,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4772,14 +4781,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>177</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4788,14 +4797,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>290</v>
+        <v>39</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4805,14 +4814,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>139</v>
+        <v>276</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4821,14 +4830,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>293</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4838,49 +4847,82 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>5877.9949999999999</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>292</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>293</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>294</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>16</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>33</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>130</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>6005.9949999999999</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>295</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>296</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>297</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5394,10 +5436,15 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -176,231 +176,246 @@
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>3:2</t>
+    <t>2:4</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CALDIN ZINC SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>CARLA EXTRA 30 TAB</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CERELAC قمح وتفاح بدون لبن</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG I.V.VIAL</t>
+  </si>
+  <si>
+    <t>146.00</t>
+  </si>
+  <si>
+    <t>146.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>9:3</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>187.50</t>
+  </si>
+  <si>
+    <t>61.8750</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
     <t>31.6800</t>
   </si>
   <si>
-    <t>CALDIN ZINC SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>CARLA EXTRA 30 TAB</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CERELAC قمح وتفاح بدون لبن</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>COGINTOL 20 TAB.</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG I.V.VIAL</t>
-  </si>
-  <si>
-    <t>146.00</t>
-  </si>
-  <si>
-    <t>146.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>9:3</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>187.50</t>
-  </si>
-  <si>
-    <t>61.8750</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
+    <t>DOLPHIN 50MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DROPEGEN 30 ML  DROPS</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
+    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
+  </si>
+  <si>
+    <t>EPICOGEL SUSP. 180ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>EVASTINE 10MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
     <t>6:2</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOLPHIN 50MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DROPEGEN 30 ML  DROPS</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>386.00</t>
-  </si>
-  <si>
-    <t>127.3800</t>
-  </si>
-  <si>
-    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
-  </si>
-  <si>
-    <t>EPICOGEL SUSP. 180ML</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>EVASTINE 10MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:7</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -485,9 +500,6 @@
     <t>192.00</t>
   </si>
   <si>
-    <t>63.3600</t>
-  </si>
-  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -500,9 +512,6 @@
     <t>HEPATO-FORTE 30 CAPS.</t>
   </si>
   <si>
-    <t>81.00</t>
-  </si>
-  <si>
     <t>53.4600</t>
   </si>
   <si>
@@ -791,9 +800,6 @@
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -896,7 +902,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 10:16 PM</t>
+    <t>Saturday, 19 July, 2025 10:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1917,7 +1923,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1926,14 +1932,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1943,14 +1949,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1959,7 +1965,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1976,11 +1982,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1992,14 +1998,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2016,7 +2022,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2032,24 +2038,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2058,20 +2064,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2082,7 +2088,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2098,7 +2104,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2108,14 +2114,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2124,7 +2130,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2141,14 +2147,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2157,14 +2163,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2174,14 +2180,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2190,14 +2196,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2207,11 +2213,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2223,14 +2229,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2240,14 +2246,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2263,7 +2269,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2273,14 +2279,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2289,14 +2295,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2306,14 +2312,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2322,14 +2328,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2343,7 +2349,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2355,14 +2361,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2372,11 +2378,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2395,7 +2401,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2405,11 +2411,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2421,14 +2427,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2438,11 +2444,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2454,14 +2460,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2475,10 +2481,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2487,7 +2493,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2504,14 +2510,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2520,28 +2526,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2553,31 +2559,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2586,14 +2592,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2603,14 +2609,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2619,14 +2625,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2636,11 +2642,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2652,14 +2658,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2669,14 +2675,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2685,14 +2691,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2702,11 +2708,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2718,14 +2724,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2742,7 +2748,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2758,7 +2764,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2768,14 +2774,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2784,31 +2790,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2817,31 +2823,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2850,14 +2856,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2867,14 +2873,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2883,14 +2889,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2900,11 +2906,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2916,14 +2922,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2933,11 +2939,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2949,28 +2955,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2982,28 +2988,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3015,14 +3021,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3032,14 +3038,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3048,14 +3054,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3065,11 +3071,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3081,14 +3087,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3098,14 +3104,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3114,14 +3120,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3131,14 +3137,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3147,14 +3153,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3164,14 +3170,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3187,7 +3193,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3197,14 +3203,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3213,14 +3219,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3230,11 +3236,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3253,7 +3259,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3263,11 +3269,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3279,14 +3285,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3296,14 +3302,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3312,14 +3318,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3329,14 +3335,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3352,7 +3358,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3369,7 +3375,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3385,7 +3391,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3395,11 +3401,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3411,7 +3417,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3428,14 +3434,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3451,13 +3457,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3468,7 +3474,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3517,24 +3523,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3543,14 +3549,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3560,14 +3566,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3576,14 +3582,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3593,14 +3599,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3609,14 +3615,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3626,11 +3632,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3642,14 +3648,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3659,14 +3665,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3675,14 +3681,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3692,14 +3698,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3708,14 +3714,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3725,14 +3731,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3758,14 +3764,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3781,7 +3787,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3791,14 +3797,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>73</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3814,7 +3820,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3824,11 +3830,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>143</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3840,14 +3846,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3857,14 +3863,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3880,7 +3886,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3897,7 +3903,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3913,7 +3919,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3923,14 +3929,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3939,28 +3945,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>135</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3979,24 +3985,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>226</v>
+        <v>39</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4022,14 +4028,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4038,20 +4044,20 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4062,7 +4068,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4078,24 +4084,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4104,14 +4110,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4121,11 +4127,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4137,14 +4143,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>65</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4154,11 +4160,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>120</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4170,14 +4176,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4187,14 +4193,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>124</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>47</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4203,7 +4209,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4220,14 +4226,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4236,7 +4242,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4253,11 +4259,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4269,14 +4275,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4286,11 +4292,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4309,7 +4315,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4319,14 +4325,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4335,14 +4341,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4352,14 +4358,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>25</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4368,14 +4374,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4385,14 +4391,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4401,14 +4407,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>260</v>
+        <v>69</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4418,11 +4424,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4434,14 +4440,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4451,14 +4457,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>123</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>202</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4474,7 +4480,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>266</v>
+        <v>96</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4484,14 +4490,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>127</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>210</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>65</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4500,14 +4506,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>72</v>
+        <v>268</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4521,10 +4527,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4533,28 +4539,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4566,14 +4572,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4583,11 +4589,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4599,14 +4605,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4616,14 +4622,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>142</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>70</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4639,7 +4645,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4649,14 +4655,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>147</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4665,7 +4671,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4682,14 +4688,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>284</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4715,14 +4721,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q103" s="12">
         <v>286</v>
-      </c>
-      <c t="s" r="Q103" s="12">
-        <v>65</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4738,7 +4744,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4748,14 +4754,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4764,14 +4770,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4781,11 +4787,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4797,14 +4803,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4814,14 +4820,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4830,14 +4836,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>293</v>
+        <v>39</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4847,14 +4853,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>142</v>
+        <v>278</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4870,7 +4876,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4880,49 +4886,82 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>6005.9949999999999</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>295</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
         <v>296</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>16</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>33</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>135</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>6080.2449999999999</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
         <v>297</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>298</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>299</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5441,10 +5480,15 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -902,7 +902,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 10:20 PM</t>
+    <t>Saturday, 19 July, 2025 10:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -89,6 +89,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -536,6 +545,12 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -557,12 +572,6 @@
     <t>MELOQUIN 4% CREAM 20 GM</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -902,7 +911,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 10:24 PM</t>
+    <t>Saturday, 19 July, 2025 10:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1642,7 +1651,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1652,14 +1661,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1668,31 +1677,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1701,31 +1710,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1741,7 +1750,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1751,14 +1760,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1767,14 +1776,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1791,7 +1800,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1807,7 +1816,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1817,14 +1826,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1840,7 +1849,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1850,7 +1859,7 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1873,7 +1882,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1906,7 +1915,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1916,14 +1925,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1932,7 +1941,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1949,14 +1958,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1972,7 +1981,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1989,7 +1998,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2005,7 +2014,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2038,7 +2047,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2048,14 +2057,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2064,20 +2073,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2088,7 +2097,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2104,24 +2113,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2130,14 +2139,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2154,7 +2163,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2180,14 +2189,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2196,14 +2205,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2213,14 +2222,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2236,7 +2245,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2246,11 +2255,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2262,14 +2271,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2279,14 +2288,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2295,14 +2304,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2319,7 +2328,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2335,7 +2344,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2345,14 +2354,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2382,7 +2391,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2394,14 +2403,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2411,11 +2420,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2427,14 +2436,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2448,7 +2457,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2460,14 +2469,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2477,14 +2486,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2500,7 +2509,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2510,14 +2519,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2526,7 +2535,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2543,14 +2552,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2566,13 +2575,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2599,13 +2608,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2616,7 +2625,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2632,7 +2641,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2642,14 +2651,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2658,14 +2667,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2675,11 +2684,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2691,14 +2700,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2708,14 +2717,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2731,7 +2740,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2764,7 +2773,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2774,14 +2783,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2790,14 +2799,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2807,14 +2816,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2823,20 +2832,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2847,7 +2856,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2863,13 +2872,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2880,7 +2889,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2896,7 +2905,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2913,7 +2922,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2929,7 +2938,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2962,7 +2971,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2976,7 +2985,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2988,28 +2997,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3028,13 +3037,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3061,7 +3070,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3071,14 +3080,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3087,14 +3096,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3108,7 +3117,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3120,14 +3129,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3137,14 +3146,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3160,7 +3169,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3170,14 +3179,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3186,14 +3195,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3203,14 +3212,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3226,7 +3235,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3236,14 +3245,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3252,14 +3261,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3269,11 +3278,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3292,7 +3301,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3302,11 +3311,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3318,14 +3327,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3335,14 +3344,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3351,14 +3360,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3368,14 +3377,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3391,7 +3400,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3401,14 +3410,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>59</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3417,14 +3426,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3434,14 +3443,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3450,14 +3459,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3467,14 +3476,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3483,28 +3492,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3516,31 +3525,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3549,31 +3558,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3582,31 +3591,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3615,14 +3624,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3632,14 +3641,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3648,14 +3657,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3665,14 +3674,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3681,14 +3690,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3698,14 +3707,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3714,14 +3723,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3731,14 +3740,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3747,14 +3756,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3764,14 +3773,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3780,14 +3789,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3797,11 +3806,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3813,14 +3822,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3830,11 +3839,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3846,14 +3855,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3863,14 +3872,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3879,14 +3888,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3896,14 +3905,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3912,14 +3921,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3929,14 +3938,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3945,14 +3954,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3962,14 +3971,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3978,31 +3987,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4011,14 +4020,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4028,14 +4037,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4044,31 +4053,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4077,31 +4086,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4110,14 +4119,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4127,14 +4136,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4143,31 +4152,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4176,14 +4185,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>69</v>
+        <v>242</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4193,11 +4202,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4209,14 +4218,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4226,14 +4235,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>47</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4242,14 +4251,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4259,14 +4268,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4275,14 +4284,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4292,14 +4301,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>150</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4315,7 +4324,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4325,11 +4334,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>83</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4341,14 +4350,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4358,14 +4367,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4374,14 +4383,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4391,11 +4400,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>25</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4407,14 +4416,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4424,11 +4433,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4440,14 +4449,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4457,14 +4466,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4473,14 +4482,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4490,14 +4499,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>205</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4506,14 +4515,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>268</v>
+        <v>61</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4523,14 +4532,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4539,14 +4548,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4556,14 +4565,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>130</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4572,31 +4581,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4605,28 +4614,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4638,31 +4647,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>147</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4671,31 +4680,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>39</v>
+        <v>280</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4704,31 +4713,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>286</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4737,31 +4746,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4770,31 +4779,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4803,31 +4812,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4836,31 +4845,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>183</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4869,28 +4878,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>147</v>
+        <v>277</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>148</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4909,59 +4918,125 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>135</v>
+        <v>281</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>6080.2449999999999</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
         <v>297</v>
       </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
         <v>298</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>36</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>150</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>299</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>16</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>36</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>138</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>6160.0450000000001</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>300</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>301</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>302</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5485,10 +5560,20 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -236,6 +236,12 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>CERELAC قمح وتفاح بدون لبن</t>
   </si>
   <si>
@@ -851,15 +857,12 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>38:0</t>
+    <t>37:0</t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -887,6 +890,15 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t>شاور جل بلو لاين</t>
   </si>
   <si>
@@ -911,7 +923,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 10:31 PM</t>
+    <t>Saturday, 19 July, 2025 10:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2113,24 +2125,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2139,31 +2151,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2172,14 +2184,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2189,14 +2201,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2205,7 +2217,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2222,14 +2234,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2245,7 +2257,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2255,14 +2267,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2271,14 +2283,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2288,11 +2300,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2304,14 +2316,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2321,14 +2333,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2337,14 +2349,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2354,14 +2366,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2370,14 +2382,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2387,14 +2399,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2403,14 +2415,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2424,7 +2436,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2453,11 +2465,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2469,14 +2481,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2486,11 +2498,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2509,7 +2521,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2519,14 +2531,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2535,14 +2547,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2559,7 +2571,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2585,14 +2597,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2601,28 +2613,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2634,31 +2646,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2667,14 +2679,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2684,14 +2696,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2700,7 +2712,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2717,11 +2729,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2740,7 +2752,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2750,14 +2762,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2766,14 +2778,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2783,11 +2795,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2799,14 +2811,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2816,14 +2828,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2832,14 +2844,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2849,14 +2861,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2865,31 +2877,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2898,31 +2910,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2931,14 +2943,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2948,14 +2960,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2964,14 +2976,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2981,11 +2993,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2997,7 +3009,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3014,11 +3026,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3037,13 +3049,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3051,7 +3063,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3063,28 +3075,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3096,14 +3108,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3113,14 +3125,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3129,14 +3141,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3146,11 +3158,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3169,7 +3181,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3183,10 +3195,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3195,14 +3207,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3212,14 +3224,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3235,7 +3247,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3245,14 +3257,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3261,14 +3273,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3278,14 +3290,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3294,14 +3306,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3311,11 +3323,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3327,7 +3339,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3344,7 +3356,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3367,7 +3379,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3377,11 +3389,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3393,14 +3405,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3410,14 +3422,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3433,7 +3445,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3443,14 +3455,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3459,14 +3471,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3476,14 +3488,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3492,14 +3504,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3513,7 +3525,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3525,7 +3537,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3542,14 +3554,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3558,31 +3570,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3591,7 +3603,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3608,11 +3620,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3624,31 +3636,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3664,7 +3676,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3674,14 +3686,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3690,14 +3702,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3707,14 +3719,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3723,14 +3735,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3740,11 +3752,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3756,14 +3768,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3773,14 +3785,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>208</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3789,14 +3801,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3806,14 +3818,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3829,7 +3841,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3839,14 +3851,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3855,14 +3867,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3872,14 +3884,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3888,14 +3900,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3905,14 +3917,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3921,14 +3933,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3938,11 +3950,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3954,14 +3966,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3971,14 +3983,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3987,14 +3999,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>49</v>
+        <v>210</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4004,14 +4016,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4020,14 +4032,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4037,14 +4049,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>113</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4053,28 +4065,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4086,31 +4098,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4119,14 +4131,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4136,14 +4148,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4152,31 +4164,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4185,31 +4197,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4218,14 +4230,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4235,11 +4247,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4251,14 +4263,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>72</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4268,7 +4280,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4291,7 +4303,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4301,14 +4313,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>129</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>50</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4334,14 +4346,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4367,11 +4379,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4383,14 +4395,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4400,11 +4412,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>155</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4416,14 +4428,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4433,14 +4445,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4456,7 +4468,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4466,14 +4478,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4489,7 +4501,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4499,14 +4511,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4522,7 +4534,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4532,11 +4544,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4548,14 +4560,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4565,14 +4577,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>130</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>208</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4588,7 +4600,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>271</v>
+        <v>101</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4598,14 +4610,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>72</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4614,14 +4626,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4635,10 +4647,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4647,28 +4659,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4680,14 +4692,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4697,11 +4709,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4713,14 +4725,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4730,11 +4742,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>150</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>72</v>
@@ -4746,14 +4758,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>42</v>
+        <v>285</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4763,14 +4775,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>152</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4779,7 +4791,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4796,14 +4808,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>113</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>289</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4812,7 +4824,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4829,14 +4841,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>72</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4845,14 +4857,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4862,14 +4874,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4878,14 +4890,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>72</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4895,11 +4907,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4918,7 +4930,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4928,14 +4940,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>179</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4944,14 +4956,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>298</v>
+        <v>72</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4961,11 +4973,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>150</v>
+        <v>279</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -4977,14 +4989,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4994,49 +5006,115 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>138</v>
+        <v>283</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q111" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>301</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>302</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>36</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>152</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>303</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>16</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>36</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>140</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q113" s="12">
         <v>72</v>
       </c>
     </row>
-    <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>6160.0450000000001</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>300</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>301</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
-        <v>302</v>
-      </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>6220.0450000000001</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>304</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>305</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>306</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5570,10 +5648,20 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -923,7 +923,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 10:33 PM</t>
+    <t>Saturday, 19 July, 2025 10:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -923,7 +923,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 10:38 PM</t>
+    <t>Saturday, 19 July, 2025 10:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -101,708 +101,717 @@
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>92.0700</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>ARBATEG 2% SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>ARTHFREE 20MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 457MG/5ML SUSP. 70 ML</t>
+  </si>
+  <si>
+    <t>137.00</t>
+  </si>
+  <si>
+    <t>137.0000</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CALDIN ZINC SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>CARLA EXTRA 30 TAB</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>CERELAC قمح وتفاح بدون لبن</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG I.V.VIAL</t>
+  </si>
+  <si>
+    <t>146.00</t>
+  </si>
+  <si>
+    <t>146.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>9:3</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>187.50</t>
+  </si>
+  <si>
+    <t>61.8750</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DOLPHIN 50MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DROPEGEN 30 ML  DROPS</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
+    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
+  </si>
+  <si>
+    <t>EPICOGEL SUSP. 180ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>EVASTINE 10MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLIX NASAL SPRAY 50 MCG/METERED SPRAY DOSE</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>FORTYMOX 0.5% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>FRIZZ OFF CREAM CREAM</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>220.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>0:17</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>248.0000</t>
+  </si>
+  <si>
+    <t>HEPATO-FORTE 30 CAPS.</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>IBIAMOX 500MG 12 CAPS.</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>MELOQUIN 4% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MY-VITOS 30SOFT GELATIN CAPSULES</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
+    <t>NEBULA HAIR TONIC</t>
+  </si>
+  <si>
+    <t>399.00</t>
+  </si>
+  <si>
+    <t>399.0000</t>
+  </si>
+  <si>
+    <t>NEURONTIN 300MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>162.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>133.6500</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>4:8</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>OXITROPIL 1200 MG 60 TAB</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRETOPRAZAN  20MG  14CAPS</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:16</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>75.2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUIK ROOTS  AMP </t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>297.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>URIPAN X.R. 10 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTODINE20    6 AMP</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>ARBATEG 2% SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>ARTHFREE 20MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>261.00</t>
-  </si>
-  <si>
-    <t>86.1300</t>
-  </si>
-  <si>
-    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>128.0000</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 457MG/5ML SUSP. 70 ML</t>
-  </si>
-  <si>
-    <t>137.00</t>
-  </si>
-  <si>
-    <t>137.0000</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CALDIN ZINC SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>CARLA EXTRA 30 TAB</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CEPOREX 1GM 8 TABLETS</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>CERELAC قمح وتفاح بدون لبن</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>COGINTOL 20 TAB.</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG I.V.VIAL</t>
-  </si>
-  <si>
-    <t>146.00</t>
-  </si>
-  <si>
-    <t>146.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>9:3</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>187.50</t>
-  </si>
-  <si>
-    <t>61.8750</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DOLPHIN 50MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DROPEGEN 30 ML  DROPS</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>386.00</t>
-  </si>
-  <si>
-    <t>127.3800</t>
-  </si>
-  <si>
-    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
-  </si>
-  <si>
-    <t>EPICOGEL SUSP. 180ML</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>EVASTINE 10MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:7</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLIX NASAL SPRAY 50 MCG/METERED SPRAY DOSE</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>FORTYMOX 0.5% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>FRIZZ OFF CREAM CREAM</t>
-  </si>
-  <si>
-    <t>220.00</t>
-  </si>
-  <si>
-    <t>220.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
-  </si>
-  <si>
-    <t>0:17</t>
-  </si>
-  <si>
-    <t>288.00</t>
-  </si>
-  <si>
-    <t>11.5200</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>248.0000</t>
-  </si>
-  <si>
-    <t>HEPATO-FORTE 30 CAPS.</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>IBIAMOX 500MG 12 CAPS.</t>
-  </si>
-  <si>
-    <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>MELOQUIN 4% CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>MY-VITOS 30SOFT GELATIN CAPSULES</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>165.0000</t>
-  </si>
-  <si>
-    <t>NEBULA HAIR TONIC</t>
-  </si>
-  <si>
-    <t>399.00</t>
-  </si>
-  <si>
-    <t>399.0000</t>
-  </si>
-  <si>
-    <t>NEURONTIN 300MG 20 CAPS</t>
-  </si>
-  <si>
-    <t>162.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NORGESIC 20 TAB.</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>133.6500</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>4:8</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>OXITROPIL 1200 MG 60 TAB</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRETOPRAZAN  20MG  14CAPS</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>4.8000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>1:16</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>75.2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUIK ROOTS  AMP </t>
-  </si>
-  <si>
-    <t>450.00</t>
-  </si>
-  <si>
-    <t>297.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:3</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>6.7200</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>TORSAMOLEX 20MG 20 TABS</t>
-  </si>
-  <si>
-    <t>URIPAN X.R. 10 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>VETOCETAMOL 24 TAB.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -824,7 +833,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>50.4900</t>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>67.3200</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -881,7 +893,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1746,7 +1758,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1755,14 +1767,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1772,11 +1784,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1788,14 +1800,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1805,11 +1817,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1821,7 +1833,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1838,11 +1850,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1854,14 +1866,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1875,7 +1887,7 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1887,14 +1899,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1904,11 +1916,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1920,14 +1932,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1937,11 +1949,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1953,14 +1965,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1970,14 +1982,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1986,14 +1998,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2003,11 +2015,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -2019,14 +2031,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2036,11 +2048,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2052,14 +2064,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2069,11 +2081,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2085,14 +2097,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2102,11 +2114,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -2118,7 +2130,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2139,7 +2151,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -2151,14 +2163,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2168,11 +2180,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2184,14 +2196,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2201,14 +2213,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2217,7 +2229,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2234,11 +2246,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2250,7 +2262,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2267,14 +2279,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2283,7 +2295,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2300,11 +2312,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2316,14 +2328,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2333,11 +2345,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2349,14 +2361,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2366,11 +2378,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>23</v>
@@ -2382,14 +2394,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2399,11 +2411,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2415,14 +2427,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2436,7 +2448,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2448,14 +2460,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2469,7 +2481,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2481,14 +2493,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2498,11 +2510,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2514,14 +2526,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2531,11 +2543,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2547,14 +2559,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2564,14 +2576,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2580,7 +2592,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2597,11 +2609,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2613,7 +2625,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2630,11 +2642,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2646,14 +2658,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2663,11 +2675,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2679,14 +2691,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2696,11 +2708,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2712,14 +2724,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2729,11 +2741,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2745,14 +2757,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2762,11 +2774,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2778,7 +2790,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2795,11 +2807,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2811,14 +2823,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2828,11 +2840,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2844,14 +2856,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2861,14 +2873,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2877,14 +2889,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2894,11 +2906,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2910,14 +2922,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2927,11 +2939,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2943,14 +2955,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2960,11 +2972,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2976,7 +2988,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2993,11 +3005,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3009,14 +3021,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3026,11 +3038,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3042,14 +3054,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3059,11 +3071,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3075,14 +3087,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3092,11 +3104,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3108,14 +3120,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3125,11 +3137,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3141,14 +3153,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3158,11 +3170,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3174,14 +3186,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3191,11 +3203,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3207,14 +3219,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3224,14 +3236,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3240,7 +3252,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3257,14 +3269,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3273,14 +3285,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3290,11 +3302,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3306,14 +3318,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3323,11 +3335,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3339,7 +3351,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3356,11 +3368,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3372,7 +3384,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3393,7 +3405,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3405,14 +3417,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3422,11 +3434,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3438,14 +3450,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3455,14 +3467,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3471,7 +3483,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3488,11 +3500,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3504,14 +3516,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3525,7 +3537,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3537,14 +3549,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3558,7 +3570,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3570,14 +3582,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3587,11 +3599,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3603,14 +3615,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3620,11 +3632,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3636,14 +3648,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3653,11 +3665,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3669,7 +3681,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3686,14 +3698,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3702,14 +3714,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3719,11 +3731,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3735,14 +3747,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3752,11 +3764,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3768,7 +3780,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3785,11 +3797,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3801,14 +3813,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3818,14 +3830,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>210</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3855,7 +3867,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3884,7 +3896,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3917,7 +3929,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3973,7 +3985,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3983,11 +3995,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4006,7 +4018,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4016,14 +4028,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4032,14 +4044,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4049,14 +4061,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4065,14 +4077,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4082,14 +4094,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>115</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4105,21 +4117,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4131,31 +4143,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>234</v>
+        <v>43</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4164,14 +4176,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4181,14 +4193,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4197,31 +4209,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>33</v>
+        <v>238</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4230,31 +4242,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4263,14 +4275,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4280,11 +4292,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4296,14 +4308,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4313,11 +4325,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4329,14 +4341,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4346,14 +4358,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>130</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4362,14 +4374,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4379,14 +4391,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>85</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4395,14 +4407,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4412,11 +4424,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>83</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4435,7 +4447,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4445,11 +4457,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>156</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4461,14 +4473,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4478,14 +4490,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4494,14 +4506,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4511,14 +4523,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>179</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4527,14 +4539,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4544,11 +4556,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>245</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4560,14 +4572,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>61</v>
+        <v>266</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4577,14 +4589,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4593,14 +4605,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4610,14 +4622,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>210</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4626,14 +4638,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>273</v>
+        <v>62</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4643,14 +4655,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4659,14 +4671,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4676,14 +4688,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>133</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4692,31 +4704,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4725,31 +4737,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4758,14 +4770,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>285</v>
+        <v>214</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4775,14 +4787,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>152</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4791,14 +4803,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4812,10 +4824,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4824,14 +4836,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>42</v>
+        <v>289</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4841,14 +4853,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>274</v>
+        <v>153</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>290</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4857,14 +4869,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4874,14 +4886,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4897,7 +4909,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>43</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4907,14 +4919,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>292</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>294</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4923,14 +4935,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4940,14 +4952,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4956,14 +4968,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>72</v>
+        <v>298</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4973,11 +4985,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -4996,7 +5008,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5006,14 +5018,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>181</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5022,14 +5034,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5039,11 +5051,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>152</v>
+        <v>283</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>153</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5055,14 +5067,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5072,49 +5084,115 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>140</v>
+        <v>287</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>72</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>6220.0450000000001</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>304</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>305</v>
       </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
         <v>306</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>36</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>153</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>307</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>16</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>36</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>141</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6369.5649999999996</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>308</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>309</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>310</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5658,10 +5736,20 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -176,6 +176,18 @@
     <t>128.0000</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>AUGMENTIN 457MG/5ML SUSP. 70 ML</t>
   </si>
   <si>
@@ -218,6 +230,12 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>CANDALKAN 8MG 14 TAB</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>CARLA EXTRA 30 TAB</t>
   </si>
   <si>
@@ -323,6 +341,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -332,9 +359,6 @@
     <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>187.50</t>
   </si>
   <si>
@@ -395,7 +419,10 @@
     <t>EPICOGEL SUSP. 180ML</t>
   </si>
   <si>
-    <t>48.0000</t>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
   </si>
   <si>
     <t>EVASTINE 10MG 20 F.C.TAB.</t>
@@ -437,7 +464,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>3.8400</t>
+    <t>7.6800</t>
   </si>
   <si>
     <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
@@ -893,7 +920,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>13:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -935,7 +962,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 10:47 PM</t>
+    <t>Saturday, 19 July, 2025 10:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1939,7 +1966,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1949,14 +1976,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1965,14 +1992,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1989,7 +2016,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1998,14 +2025,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2022,7 +2049,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2031,14 +2058,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2048,14 +2075,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2064,7 +2091,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2081,11 +2108,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2097,14 +2124,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2114,14 +2141,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2130,14 +2157,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2147,14 +2174,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2170,24 +2197,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2196,14 +2223,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2213,14 +2240,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2229,31 +2256,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2262,14 +2289,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2279,14 +2306,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2295,14 +2322,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2312,14 +2339,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2328,14 +2355,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2345,14 +2372,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2361,14 +2388,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2378,14 +2405,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2394,7 +2421,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2411,11 +2438,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2427,14 +2454,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2444,14 +2471,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2467,7 +2494,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2477,14 +2504,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2493,14 +2520,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2510,7 +2537,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2533,7 +2560,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2543,11 +2570,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2559,14 +2586,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2576,14 +2603,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2599,7 +2626,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2609,11 +2636,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2625,14 +2652,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2642,14 +2669,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2665,24 +2692,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2698,7 +2725,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2708,11 +2735,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2724,14 +2751,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2741,11 +2768,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2757,28 +2784,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2790,14 +2817,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2807,11 +2834,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2823,14 +2850,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2840,14 +2867,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2863,7 +2890,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2873,14 +2900,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2889,14 +2916,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2906,11 +2933,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2922,31 +2949,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2955,14 +2982,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2972,11 +2999,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2988,14 +3015,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3005,14 +3032,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3021,14 +3048,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3038,14 +3065,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3054,28 +3081,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3087,31 +3114,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3120,14 +3147,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3137,11 +3164,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3153,14 +3180,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3170,14 +3197,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3186,14 +3213,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3203,14 +3230,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3219,7 +3246,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3232,18 +3259,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3252,14 +3279,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3269,14 +3296,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3285,14 +3312,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3302,11 +3329,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3318,14 +3345,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3335,14 +3362,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3358,7 +3385,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3375,7 +3402,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3391,7 +3418,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3401,14 +3428,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3424,7 +3451,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3434,14 +3461,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3450,14 +3477,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3467,14 +3494,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3483,14 +3510,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3500,14 +3527,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3516,14 +3543,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3537,7 +3564,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3549,14 +3576,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3566,14 +3593,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3582,14 +3609,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3599,14 +3626,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3615,31 +3642,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3648,7 +3675,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3661,15 +3688,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3681,14 +3708,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3698,14 +3725,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3714,14 +3741,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3731,11 +3758,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3747,7 +3774,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3760,15 +3787,15 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3780,28 +3807,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3813,14 +3840,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3830,14 +3857,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3853,7 +3880,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3863,11 +3890,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3879,14 +3906,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3896,11 +3923,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3919,7 +3946,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3929,14 +3956,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3945,14 +3972,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3962,14 +3989,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3978,14 +4005,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3995,14 +4022,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4011,14 +4038,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4028,11 +4055,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4044,14 +4071,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>226</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4061,14 +4088,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>225</v>
+        <v>85</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4077,14 +4104,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>50</v>
+        <v>223</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4094,14 +4121,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4110,14 +4137,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4127,11 +4154,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4143,28 +4170,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>232</v>
+        <v>162</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4176,14 +4203,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4193,14 +4220,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4209,14 +4236,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>238</v>
+        <v>50</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4226,14 +4253,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4242,31 +4269,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4275,31 +4302,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4308,14 +4335,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4325,11 +4352,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>27</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4341,14 +4368,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4358,14 +4385,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4374,31 +4401,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4407,14 +4434,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>43</v>
+        <v>254</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4424,14 +4451,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>86</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4440,14 +4467,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>43</v>
+        <v>258</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4457,14 +4484,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>84</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4473,14 +4500,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4490,14 +4517,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>139</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4506,7 +4533,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4523,14 +4550,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4539,14 +4566,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4556,14 +4583,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4572,14 +4599,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>266</v>
+        <v>43</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4589,11 +4616,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>165</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4612,7 +4639,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4622,14 +4649,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4638,14 +4665,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4655,14 +4682,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4671,14 +4698,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4688,14 +4715,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4704,14 +4731,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4721,14 +4748,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4737,14 +4764,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4754,14 +4781,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4770,31 +4797,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4803,31 +4830,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>142</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4836,31 +4863,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>153</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4869,31 +4896,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4902,14 +4929,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4919,14 +4946,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>25</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>294</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4935,14 +4962,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>43</v>
+        <v>295</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4952,14 +4979,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4985,14 +5012,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>162</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5001,14 +5028,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5018,14 +5045,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5034,14 +5061,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5051,14 +5078,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>284</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>303</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5084,14 +5111,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>182</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>266</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5100,14 +5127,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5117,11 +5144,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>153</v>
+        <v>308</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>154</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5133,7 +5160,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5150,49 +5177,181 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>141</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>128</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6369.5649999999996</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>308</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>309</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>310</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>312</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>79</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>36</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>292</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>313</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>43</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>36</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>296</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>314</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>315</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>36</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>162</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>316</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>16</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>36</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>150</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>6649.4049999999997</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>317</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>318</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>319</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5746,10 +5905,30 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -590,6 +590,15 @@
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
+    <t>JOYPOX 60MG 3 TAB</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>16.9600</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -962,7 +971,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 10:59 PM</t>
+    <t>Saturday, 19 July, 2025 11:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3616,7 +3625,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3626,14 +3635,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3642,14 +3651,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3659,14 +3668,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>64</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3682,7 +3691,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3692,14 +3701,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3708,14 +3717,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3741,7 +3750,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3758,14 +3767,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3781,13 +3790,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3798,7 +3807,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3847,24 +3856,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3873,14 +3882,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3890,14 +3899,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3906,14 +3915,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3923,14 +3932,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3939,14 +3948,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3956,11 +3965,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3972,14 +3981,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3989,14 +3998,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4012,7 +4021,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4026,10 +4035,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4038,14 +4047,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>223</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4055,14 +4064,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4088,14 +4097,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4111,7 +4120,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4121,14 +4130,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>85</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4144,7 +4153,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4154,11 +4163,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4170,14 +4179,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4187,11 +4196,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4203,14 +4212,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4220,14 +4229,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4243,7 +4252,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4260,7 +4269,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4276,7 +4285,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4286,14 +4295,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>124</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4302,28 +4311,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4342,24 +4351,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>27</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4385,14 +4394,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4401,20 +4410,20 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4425,7 +4434,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4441,24 +4450,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4467,14 +4476,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4484,11 +4493,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4500,14 +4509,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4517,11 +4526,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>139</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4533,14 +4542,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4550,14 +4559,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>51</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4566,7 +4575,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4583,14 +4592,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4599,7 +4608,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4616,11 +4625,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>90</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4632,14 +4641,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4649,11 +4658,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>165</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4672,7 +4681,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4682,14 +4691,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4698,14 +4707,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4715,14 +4724,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>273</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4731,14 +4740,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4748,14 +4757,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>25</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4771,7 +4780,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4781,14 +4790,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4797,14 +4806,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4814,7 +4823,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4837,7 +4846,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>283</v>
+        <v>66</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4847,14 +4856,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4880,14 +4889,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>142</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>227</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4903,7 +4912,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>88</v>
+        <v>289</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4913,14 +4922,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4936,13 +4945,13 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>223</v>
+        <v>88</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
@@ -4969,7 +4978,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>295</v>
+        <v>226</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4979,14 +4988,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5012,11 +5021,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>86</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>79</v>
@@ -5028,14 +5037,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>43</v>
+        <v>301</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5045,14 +5054,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>162</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>23</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5078,14 +5087,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>127</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>303</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5094,7 +5103,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5111,14 +5120,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>305</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>79</v>
+        <v>306</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5127,14 +5136,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5144,14 +5153,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5167,7 +5176,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5177,11 +5186,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5200,7 +5209,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5210,11 +5219,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5226,14 +5235,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5243,14 +5252,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>275</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5259,14 +5268,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>315</v>
+        <v>43</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5276,14 +5285,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>278</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5292,14 +5301,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>318</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5309,49 +5318,82 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>319</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>16</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>36</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>150</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
         <v>74</v>
       </c>
-      <c t="s" r="Q119" s="12">
+      <c t="s" r="Q120" s="12">
         <v>79</v>
       </c>
     </row>
-    <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>6649.4049999999997</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>317</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
-        <v>318</v>
-      </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
-        <v>319</v>
-      </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>6666.3649999999998</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>320</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>321</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>322</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5925,10 +5967,15 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -293,6 +293,15 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>CLINDASOL 0.3GM/30ML TOPICAL SOLUTION 30 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
@@ -341,6 +350,12 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
   </si>
   <si>
@@ -413,6 +428,9 @@
     <t>127.3800</t>
   </si>
   <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
     <t>ECTOMETHRIN 5% LOTION 50 ML</t>
   </si>
   <si>
@@ -527,6 +545,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
   </si>
   <si>
@@ -599,6 +626,15 @@
     <t>16.9600</t>
   </si>
   <si>
+    <t>LAPPY-SPOT CLENSEAR</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -842,6 +878,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -926,6 +971,12 @@
     <t>9.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -971,7 +1022,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 11:22 PM</t>
+    <t>Saturday, 19 July, 2025 11:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2371,7 +2422,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2381,14 +2432,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2397,14 +2448,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2414,14 +2465,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2437,7 +2488,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2447,11 +2498,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2463,14 +2514,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2480,14 +2531,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2496,14 +2547,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2520,7 +2571,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2536,7 +2587,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2546,14 +2597,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2579,7 +2630,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2602,21 +2653,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2635,7 +2686,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2645,7 +2696,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2668,7 +2719,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2678,11 +2729,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2701,7 +2752,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2711,14 +2762,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2734,7 +2785,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2744,11 +2795,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2767,7 +2818,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2777,14 +2828,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2800,24 +2851,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2826,14 +2877,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2843,14 +2894,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2859,28 +2910,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2892,14 +2943,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2909,14 +2960,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2925,14 +2976,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2942,14 +2993,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2958,14 +3009,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2975,14 +3026,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2998,7 +3049,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3008,14 +3059,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3024,14 +3075,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3041,14 +3092,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3057,14 +3108,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3074,14 +3125,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3090,31 +3141,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3123,14 +3174,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3140,14 +3191,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3156,14 +3207,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3173,14 +3224,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3189,28 +3240,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3222,14 +3273,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3239,14 +3290,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3255,28 +3306,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3288,14 +3339,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3305,11 +3356,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3321,14 +3372,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3338,14 +3389,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3354,31 +3405,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3387,14 +3438,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3404,14 +3455,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3420,14 +3471,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3437,14 +3488,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3453,14 +3504,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3470,11 +3521,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3486,14 +3537,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3503,14 +3554,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3526,7 +3577,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3543,7 +3594,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3559,7 +3610,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3569,14 +3620,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3592,7 +3643,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3602,14 +3653,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3618,14 +3669,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3635,14 +3686,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3658,7 +3709,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3668,14 +3719,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3684,14 +3735,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3701,14 +3752,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>27</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3724,7 +3775,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3734,14 +3785,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3757,7 +3808,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3767,14 +3818,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3783,31 +3834,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3816,31 +3867,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3849,31 +3900,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3882,14 +3933,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3899,14 +3950,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3922,7 +3973,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>215</v>
+        <v>38</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3932,14 +3983,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3948,14 +3999,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3965,14 +4016,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3981,28 +4032,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4014,31 +4065,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4047,7 +4098,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4064,14 +4115,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>152</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4080,14 +4131,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4097,14 +4148,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>89</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4113,14 +4164,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4130,14 +4181,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4153,7 +4204,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4163,11 +4214,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4179,14 +4230,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4196,14 +4247,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>124</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4219,7 +4270,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4229,14 +4280,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4245,14 +4296,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>33</v>
+        <v>238</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4262,14 +4313,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>237</v>
+        <v>89</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4278,14 +4329,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>50</v>
+        <v>241</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4295,11 +4346,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4311,14 +4362,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4328,11 +4379,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>124</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4344,28 +4395,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4377,14 +4428,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4394,14 +4445,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4410,14 +4461,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4427,11 +4478,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>38</v>
@@ -4443,31 +4494,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4476,14 +4527,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>257</v>
+        <v>23</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4493,14 +4544,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>156</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4509,31 +4560,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>261</v>
+        <v>43</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4542,14 +4593,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4559,11 +4610,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4575,14 +4626,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>43</v>
+        <v>262</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4592,14 +4643,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>51</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4608,31 +4659,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>92</v>
+        <v>266</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4641,14 +4692,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>43</v>
+        <v>269</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4658,14 +4709,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>90</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4674,14 +4725,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4691,14 +4742,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4707,14 +4758,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4724,14 +4775,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4740,14 +4791,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4757,14 +4808,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4773,14 +4824,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>278</v>
+        <v>43</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4790,11 +4841,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>92</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4806,14 +4857,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4823,14 +4874,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>258</v>
+        <v>171</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>281</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4839,14 +4890,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4856,14 +4907,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4872,14 +4923,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>286</v>
+        <v>43</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4889,14 +4940,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4905,14 +4956,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4922,14 +4973,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4938,14 +4989,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4955,11 +5006,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4971,28 +5022,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>226</v>
+        <v>293</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5004,31 +5055,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5037,31 +5088,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>301</v>
+        <v>66</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>86</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5070,31 +5121,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>43</v>
+        <v>301</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>303</v>
+        <v>148</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5103,31 +5154,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>306</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5136,31 +5187,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>308</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5176,7 +5227,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5186,11 +5237,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5209,7 +5260,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>313</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5219,14 +5270,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5242,7 +5293,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5252,14 +5303,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>295</v>
+        <v>168</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>296</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5268,7 +5319,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5285,14 +5336,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>191</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>278</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5301,14 +5352,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5318,11 +5369,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>162</v>
+        <v>321</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5334,14 +5385,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5351,49 +5402,280 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>150</v>
+        <v>305</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>324</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>43</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>36</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>318</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>325</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>326</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>327</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>36</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>328</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>325</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>329</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>16</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>36</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>330</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>331</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>332</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>79</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>36</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>310</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>311</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>333</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>43</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>36</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>314</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>334</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>335</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>36</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>168</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>336</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>16</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>36</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>156</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
         <v>74</v>
       </c>
-      <c t="s" r="Q120" s="12">
+      <c t="s" r="Q127" s="12">
         <v>79</v>
       </c>
     </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>6666.3649999999998</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>320</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>321</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
-        <v>322</v>
-      </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>7062.125</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>337</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>338</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>339</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5972,10 +6254,45 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -221,6 +221,9 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
     <t>CALDIN ZINC SUSP. 120 ML</t>
   </si>
   <si>
@@ -581,6 +584,15 @@
     <t>248.0000</t>
   </si>
   <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>HEPATO-FORTE 30 CAPS.</t>
   </si>
   <si>
@@ -839,6 +851,12 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>SLIM SAFE 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
   </si>
   <si>
@@ -914,10 +932,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>67.3200</t>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>84.1500</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -980,9 +998,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -1022,7 +1037,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 11:29 PM</t>
+    <t>Saturday, 19 July, 2025 11:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2158,7 +2173,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2168,14 +2183,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2184,7 +2199,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2201,11 +2216,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2217,7 +2232,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2234,11 +2249,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2250,14 +2265,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2267,14 +2282,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2283,14 +2298,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2300,11 +2315,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2316,31 +2331,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2349,31 +2364,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2382,14 +2397,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2399,14 +2414,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2415,14 +2430,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2432,14 +2447,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2448,14 +2463,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2465,14 +2480,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2481,14 +2496,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2498,14 +2513,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2514,14 +2529,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2531,11 +2546,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2554,7 +2569,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2564,14 +2579,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2580,14 +2595,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2597,14 +2612,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2613,14 +2628,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2630,14 +2645,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2646,28 +2661,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2679,28 +2694,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2712,14 +2727,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2729,11 +2744,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2745,14 +2760,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2762,11 +2777,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2778,14 +2793,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2795,11 +2810,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2811,14 +2826,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2828,14 +2843,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2844,14 +2859,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2865,10 +2880,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2877,7 +2892,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2894,14 +2909,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2910,28 +2925,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2943,31 +2958,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2976,14 +2991,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2993,14 +3008,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3016,7 +3031,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3026,11 +3041,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3049,7 +3064,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3059,11 +3074,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3082,7 +3097,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3092,14 +3107,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3108,14 +3123,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3125,11 +3140,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3141,14 +3156,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3158,11 +3173,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3174,14 +3189,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3191,14 +3206,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3207,14 +3222,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3224,11 +3239,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>38</v>
@@ -3240,31 +3255,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3273,31 +3288,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3306,14 +3321,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3323,14 +3338,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3339,14 +3354,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3356,11 +3371,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3372,14 +3387,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3389,11 +3404,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3405,28 +3420,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3438,28 +3453,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3471,14 +3486,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3488,11 +3503,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3504,14 +3519,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3521,14 +3536,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3537,14 +3552,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3554,11 +3569,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3570,14 +3585,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3587,14 +3602,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3603,14 +3618,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3620,14 +3635,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3636,14 +3651,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3653,14 +3668,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3669,14 +3684,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3686,14 +3701,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3709,7 +3724,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3726,7 +3741,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3742,7 +3757,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3752,11 +3767,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3768,7 +3783,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3785,14 +3800,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3801,14 +3816,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3818,14 +3833,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3841,24 +3856,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3867,14 +3882,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3884,14 +3899,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3900,31 +3915,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3933,14 +3948,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3950,14 +3965,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3973,7 +3988,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3983,14 +3998,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3999,14 +4014,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4016,14 +4031,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4039,21 +4054,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>27</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4065,31 +4080,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4098,31 +4113,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4131,31 +4146,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>227</v>
+        <v>43</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4164,14 +4179,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4181,14 +4196,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4197,14 +4212,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4214,14 +4229,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4230,14 +4245,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4247,14 +4262,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4270,7 +4285,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4280,14 +4295,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4296,14 +4311,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>238</v>
+        <v>38</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4313,14 +4328,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>89</v>
+        <v>237</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4329,14 +4344,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4346,11 +4361,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4362,14 +4377,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4379,11 +4394,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>90</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4395,14 +4410,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4412,14 +4427,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4435,7 +4450,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4445,11 +4460,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4461,14 +4476,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4478,14 +4493,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4501,7 +4516,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4511,14 +4526,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>252</v>
+        <v>169</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>253</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4527,14 +4542,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4544,14 +4559,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>156</v>
+        <v>253</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4567,13 +4582,13 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4584,7 +4599,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4600,7 +4615,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>259</v>
+        <v>23</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4610,14 +4625,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4626,31 +4641,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>262</v>
+        <v>43</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4659,31 +4674,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>266</v>
+        <v>27</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4692,14 +4707,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4709,14 +4724,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4725,31 +4740,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4758,14 +4773,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4775,11 +4790,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>145</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4791,14 +4806,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>43</v>
+        <v>277</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4808,14 +4823,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4841,11 +4856,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>92</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4864,7 +4879,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4874,14 +4889,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>90</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4890,14 +4905,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4907,14 +4922,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>285</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4940,14 +4955,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>166</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4956,14 +4971,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4973,14 +4988,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>288</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4996,7 +5011,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5029,7 +5044,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5039,14 +5054,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>201</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5055,14 +5070,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5072,11 +5087,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>270</v>
+        <v>14</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5088,14 +5103,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5105,14 +5120,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5121,14 +5136,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5138,14 +5153,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>148</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>302</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5154,14 +5169,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5171,14 +5186,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5187,14 +5202,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5204,14 +5219,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5220,31 +5235,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>238</v>
+        <v>307</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>149</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5253,31 +5268,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>311</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5286,31 +5301,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>316</v>
+        <v>89</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>168</v>
+        <v>313</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>86</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5319,14 +5334,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5336,14 +5351,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5352,14 +5367,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>43</v>
+        <v>319</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5369,14 +5384,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>242</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5385,14 +5400,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5402,14 +5417,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>305</v>
+        <v>169</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>323</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5418,7 +5433,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5435,14 +5450,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
         <v>325</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5458,7 +5473,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>327</v>
+        <v>43</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5468,11 +5483,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5484,14 +5499,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5501,14 +5516,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5517,14 +5532,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5534,14 +5549,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5550,14 +5565,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>43</v>
+        <v>332</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5567,14 +5582,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>293</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5590,7 +5605,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>335</v>
+        <v>16</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5600,11 +5615,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>168</v>
+        <v>335</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>169</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5616,14 +5631,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5633,49 +5648,148 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>156</v>
+        <v>316</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>7062.125</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>337</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
         <v>338</v>
       </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>43</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>36</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>320</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>339</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>340</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>36</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>169</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>341</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>16</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>36</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>157</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>7343.6949999999997</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>342</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>343</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>344</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6289,10 +6403,25 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -608,6 +608,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>IBIAMOX 500MG 12 CAPS.</t>
   </si>
   <si>
@@ -779,9 +788,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>92.00</t>
-  </si>
-  <si>
     <t>23.0000</t>
   </si>
   <si>
@@ -950,10 +956,13 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>96.00</t>
   </si>
   <si>
-    <t>96.0000</t>
+    <t>192.0000</t>
   </si>
   <si>
     <t xml:space="preserve">برفان القصاص </t>
@@ -1037,7 +1046,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 11:39 PM</t>
+    <t>Saturday, 19 July, 2025 11:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3757,7 +3766,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3767,11 +3776,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3783,14 +3792,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3800,11 +3809,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3833,11 +3842,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3849,7 +3858,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3866,14 +3875,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3882,14 +3891,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3899,14 +3908,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3922,13 +3931,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3939,7 +3948,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3955,24 +3964,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3981,14 +3990,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3998,14 +4007,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4021,7 +4030,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4031,14 +4040,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4047,14 +4056,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4068,7 +4077,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4080,7 +4089,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4097,14 +4106,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4120,13 +4129,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -4137,7 +4146,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4186,24 +4195,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4212,14 +4221,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4229,14 +4238,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4245,14 +4254,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4262,14 +4271,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4278,14 +4287,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4295,11 +4304,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4311,14 +4320,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4328,14 +4337,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4351,7 +4360,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4365,10 +4374,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4377,14 +4386,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>242</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4394,14 +4403,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>90</v>
+        <v>243</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4427,14 +4436,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>246</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4450,7 +4459,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4460,14 +4469,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>86</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4483,7 +4492,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4493,11 +4502,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>157</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4509,14 +4518,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4526,11 +4535,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4542,14 +4551,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4559,14 +4568,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4582,7 +4591,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4599,7 +4608,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4615,7 +4624,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4625,14 +4634,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4641,28 +4650,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>260</v>
+        <v>157</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4674,31 +4683,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>263</v>
+        <v>43</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4707,14 +4716,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4724,14 +4733,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4740,31 +4749,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>38</v>
+        <v>268</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4773,31 +4782,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4806,14 +4815,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4823,11 +4832,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4839,14 +4848,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>43</v>
+        <v>279</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4856,14 +4865,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4879,7 +4888,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4889,14 +4898,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>146</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4912,7 +4921,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4922,14 +4931,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>146</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>51</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4955,14 +4964,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4988,11 +4997,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>91</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5004,14 +5013,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5021,11 +5030,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>172</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5037,14 +5046,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5054,14 +5063,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>167</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5070,14 +5079,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5087,14 +5096,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>294</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5110,7 +5119,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5120,14 +5129,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>296</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5136,14 +5145,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>299</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5153,11 +5162,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5169,14 +5178,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>80</v>
+        <v>301</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5186,14 +5195,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>302</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5209,7 +5218,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5219,11 +5228,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5235,14 +5244,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>307</v>
+        <v>66</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5252,14 +5261,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>149</v>
+        <v>306</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5268,14 +5277,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5285,14 +5294,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>311</v>
+        <v>149</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>246</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5301,14 +5310,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>89</v>
+        <v>312</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5322,10 +5331,10 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5334,20 +5343,20 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>242</v>
+        <v>315</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
@@ -5358,7 +5367,7 @@
         <v>317</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5374,7 +5383,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>319</v>
+        <v>245</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5384,14 +5393,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5417,11 +5426,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>169</v>
+        <v>323</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>87</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>80</v>
@@ -5433,14 +5442,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5450,14 +5459,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>324</v>
+        <v>169</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>325</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5487,10 +5496,10 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5499,7 +5508,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5516,14 +5525,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>317</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5532,7 +5541,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5549,14 +5558,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5565,14 +5574,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>332</v>
+        <v>43</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5582,14 +5591,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5605,7 +5614,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>16</v>
+        <v>335</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5615,11 +5624,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5638,7 +5647,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5648,11 +5657,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5664,14 +5673,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5681,14 +5690,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>299</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5697,14 +5706,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>340</v>
+        <v>43</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5714,14 +5723,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>169</v>
+        <v>323</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5730,14 +5739,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>16</v>
+        <v>343</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5747,49 +5756,82 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>344</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>16</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>36</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>157</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
         <v>75</v>
       </c>
-      <c t="s" r="Q130" s="12">
+      <c t="s" r="Q131" s="12">
         <v>80</v>
       </c>
     </row>
-    <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>7343.6949999999997</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>342</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>343</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
-        <v>344</v>
-      </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>7531.6949999999997</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
+        <v>345</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>346</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>347</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6418,10 +6460,15 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -1046,7 +1046,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 11:46 PM</t>
+    <t>Saturday, 19 July, 2025 11:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-19_00-00.xlsx
+++ b/DaySale_2025-07-19_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>BRINGO TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
@@ -353,6 +362,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DELAREX 0.05G/100ML SYRUP 60 ML</t>
+  </si>
+  <si>
+    <t>13.50</t>
+  </si>
+  <si>
+    <t>13.5000</t>
+  </si>
+  <si>
     <t>DELAREX 5MG 30TAB</t>
   </si>
   <si>
@@ -374,6 +392,15 @@
     <t>3:3</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
     <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -386,9 +413,6 @@
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
-    <t>70.00</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -548,6 +572,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -713,9 +746,6 @@
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>66.00</t>
   </si>
   <si>
@@ -905,9 +935,6 @@
     <t>VIBRAMYCIN 100MG 10 CAPS.</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
     <t>65.0000</t>
   </si>
   <si>
@@ -1004,6 +1031,9 @@
     <t>4.00</t>
   </si>
   <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -1046,7 +1076,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 11:50 PM</t>
+    <t>Saturday, 19 July, 2025 11:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2192,14 +2222,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2208,14 +2238,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2225,14 +2255,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2258,11 +2288,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2274,7 +2304,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2291,7 +2321,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -2314,7 +2344,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2324,14 +2354,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2340,14 +2370,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2357,11 +2387,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2373,31 +2403,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2413,24 +2443,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2439,14 +2469,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2463,7 +2493,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2479,7 +2509,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2496,7 +2526,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2512,7 +2542,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2522,14 +2552,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2538,14 +2568,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2555,14 +2585,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2578,7 +2608,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2588,11 +2618,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2604,14 +2634,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2621,14 +2651,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2637,14 +2667,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2661,7 +2691,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2677,7 +2707,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2687,14 +2717,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2710,21 +2740,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2736,14 +2766,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2753,14 +2783,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2769,28 +2799,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2802,14 +2832,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2819,11 +2849,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2835,14 +2865,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2852,11 +2882,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2868,14 +2898,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2885,11 +2915,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>38</v>
@@ -2901,14 +2931,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2918,11 +2948,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2934,14 +2964,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2951,14 +2981,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2974,24 +3004,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3007,7 +3037,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3017,11 +3047,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -3033,14 +3063,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3050,11 +3080,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3066,28 +3096,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3099,14 +3129,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3116,14 +3146,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3132,14 +3162,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3149,14 +3179,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3165,14 +3195,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3182,14 +3212,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3198,14 +3228,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3215,14 +3245,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3238,7 +3268,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3248,14 +3278,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3264,14 +3294,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3281,14 +3311,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3297,31 +3327,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3330,14 +3360,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3347,14 +3377,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3363,14 +3393,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3380,14 +3410,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3396,28 +3426,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3429,14 +3459,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3446,14 +3476,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3469,13 +3499,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3502,7 +3532,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3535,7 +3565,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3549,7 +3579,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3561,31 +3591,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3594,14 +3624,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3611,14 +3641,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3627,31 +3657,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3660,14 +3690,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3677,11 +3707,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3693,14 +3723,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3710,14 +3740,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3726,7 +3756,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3743,11 +3773,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3766,7 +3796,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3783,7 +3813,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3799,7 +3829,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3809,11 +3839,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3825,14 +3855,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3842,14 +3872,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3858,14 +3888,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3875,14 +3905,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3891,7 +3921,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3908,14 +3938,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3924,14 +3954,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3941,14 +3971,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3957,28 +3987,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3990,14 +4020,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4007,14 +4037,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4023,14 +4053,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4040,14 +4070,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4063,7 +4093,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4073,14 +4103,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4089,28 +4119,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4122,14 +4152,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4139,14 +4169,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>64</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4155,31 +4185,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4188,7 +4218,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4201,15 +4231,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>27</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4221,14 +4251,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4238,14 +4268,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4261,7 +4291,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>234</v>
+        <v>38</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4271,11 +4301,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4287,7 +4317,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4300,15 +4330,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4320,28 +4350,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4353,14 +4383,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4370,14 +4400,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4386,14 +4416,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4403,11 +4433,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4419,14 +4449,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4436,11 +4466,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4452,14 +4482,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4469,14 +4499,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4485,14 +4515,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4502,14 +4532,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4518,14 +4548,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4535,14 +4565,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>157</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4558,7 +4588,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4568,11 +4598,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4584,14 +4614,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>33</v>
+        <v>258</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4601,14 +4631,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>256</v>
+        <v>89</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4617,14 +4647,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4634,14 +4664,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4650,14 +4680,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4667,11 +4697,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4683,28 +4713,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>262</v>
+        <v>177</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>263</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4716,14 +4746,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4733,14 +4763,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>27</v>
+        <v>266</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4749,14 +4779,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>268</v>
+        <v>50</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4766,14 +4796,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4782,31 +4812,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>272</v>
+        <v>165</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>273</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4815,31 +4845,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>275</v>
+        <v>43</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4848,14 +4878,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4865,11 +4895,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>27</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4881,14 +4911,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>43</v>
+        <v>278</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4898,14 +4928,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4914,31 +4944,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>146</v>
+        <v>282</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4947,14 +4977,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4964,14 +4994,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>51</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4987,7 +5017,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>43</v>
+        <v>289</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4997,14 +5027,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>93</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5013,7 +5043,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5030,11 +5060,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>172</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>91</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5046,14 +5076,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5063,14 +5093,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>154</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5079,7 +5109,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5096,14 +5126,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>204</v>
+        <v>297</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5112,14 +5142,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5129,14 +5159,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5145,14 +5175,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5162,11 +5192,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>298</v>
+        <v>180</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>299</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5178,14 +5208,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>301</v>
+        <v>21</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5199,7 +5229,7 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>25</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5211,14 +5241,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5228,14 +5258,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>276</v>
+        <v>215</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>304</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5251,7 +5281,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5261,11 +5291,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>306</v>
+        <v>14</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5277,14 +5307,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>309</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5294,14 +5324,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5310,14 +5340,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5327,14 +5357,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5343,14 +5373,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>315</v>
+        <v>83</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5360,14 +5390,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5376,31 +5406,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>245</v>
+        <v>66</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5409,31 +5439,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>323</v>
+        <v>157</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5442,31 +5472,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>169</v>
+        <v>322</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>87</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5475,31 +5505,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>23</v>
+        <v>83</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5508,14 +5538,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5525,11 +5555,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>249</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5541,14 +5571,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>43</v>
+        <v>331</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5558,14 +5588,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5574,14 +5604,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5591,14 +5621,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>333</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5607,14 +5637,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>335</v>
+        <v>43</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5628,10 +5658,10 @@
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5640,14 +5670,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5657,14 +5687,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5673,14 +5703,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5690,14 +5720,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5706,7 +5736,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5723,14 +5753,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>207</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>301</v>
+        <v>83</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5739,14 +5769,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5756,11 +5786,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>169</v>
+        <v>346</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>170</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5772,7 +5802,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5789,49 +5819,181 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>157</v>
+        <v>348</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>75</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>7531.6949999999997</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
-        <v>345</v>
-      </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
-        <v>346</v>
-      </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
-        <v>347</v>
-      </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>350</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>83</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>36</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>328</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>329</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>351</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>43</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>36</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>332</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>352</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>353</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>36</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>177</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>354</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>16</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>36</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>165</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>7712.1949999999997</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>355</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>356</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>357</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6465,10 +6627,30 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
     <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
